--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_14_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>742808.7685040548</v>
+        <v>688807.6685585859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11259687.30723207</v>
+        <v>11259687.30723208</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6797687.2401272</v>
+        <v>6797687.240127199</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>291.3144099306535</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>291.3144099306535</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>256.5897322669194</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>256.5897322669192</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>291.3144099306535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>100.1142740246493</v>
+        <v>121.1594059723583</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.0476694894659</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>53.09789195000175</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1609,64 +1609,64 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>241.3198528823986</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>133.5758024357742</v>
+      </c>
+      <c r="T14" t="n">
+        <v>212.1682008602224</v>
+      </c>
+      <c r="U14" t="n">
+        <v>252.154695949831</v>
+      </c>
+      <c r="V14" t="n">
         <v>291.3144099306534</v>
-      </c>
-      <c r="D14" t="n">
-        <v>291.3144099306534</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>256.5897322669195</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>291.3144099306534</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>29.34911942865961</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>126.2254074071893</v>
       </c>
       <c r="H15" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>181.8976950912513</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>214.240654030169</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.0476694894656</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.6290594898501</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>256.5897322669193</v>
       </c>
       <c r="E17" t="n">
         <v>291.3144099306534</v>
@@ -1861,7 +1861,7 @@
         <v>291.3144099306534</v>
       </c>
       <c r="H17" t="n">
-        <v>256.5897322669193</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>112.9053177775225</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>112.8642125372405</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.4920059644283</v>
+        <v>153.3062595953569</v>
       </c>
       <c r="U19" t="n">
         <v>284.2627393580713</v>
@@ -2064,7 +2064,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>167.8410839603393</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>123.0139298311451</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>256.5897322669193</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>291.3144099306533</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>291.3144099306533</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>291.3144099306533</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>62.75479718824942</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.559433980811</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>10.33716341261194</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -2256,10 +2256,10 @@
         <v>166.2112589209658</v>
       </c>
       <c r="H22" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0476694894652</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>329.9867012374835</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>366.2783294759988</v>
-      </c>
-      <c r="C23" t="n">
-        <v>343.1522787824617</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.1682008602225</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.8935279912546</v>
+        <v>45.55167366138565</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>25.8384211296105</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>216.2298571375572</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.14433807911762</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U25" t="n">
-        <v>188.2225577984701</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>366.2783294759988</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="F26" t="n">
-        <v>366.2783294759988</v>
+        <v>103.1321047656094</v>
       </c>
       <c r="G26" t="n">
-        <v>366.2783294759988</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>83.4847481942426</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.1682008602225</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>26.96500354799456</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I27" t="n">
-        <v>11.69044503711983</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T27" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>216.2298571375572</v>
@@ -2696,13 +2696,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>3.121534391395848</v>
       </c>
     </row>
     <row r="28">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.1081168638417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.1954786247584</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>37.70103338222404</v>
+        <v>149.4605996233743</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="E29" t="n">
-        <v>366.2783294759987</v>
+        <v>343.1522787824619</v>
       </c>
       <c r="F29" t="n">
-        <v>355.2868007154401</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>366.2783294759987</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>63.01043042355953</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>81.6620711009266</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -2964,13 +2964,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1935869257783</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.7164842601944</v>
       </c>
       <c r="I31" t="n">
-        <v>112.1081168638417</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>193.8091813788789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>49.80969782519208</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>329.9867012374835</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>322.6179526024598</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>366.2783294759988</v>
       </c>
-      <c r="G32" t="n">
+      <c r="Y32" t="n">
         <v>366.2783294759988</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>358.909580840975</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,10 +3110,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
@@ -3125,7 +3125,7 @@
         <v>126.2254074071893</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>174.4268773574518</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>110.3491633605603</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.04546016949845</v>
       </c>
       <c r="T34" t="n">
         <v>226.4920059644283</v>
@@ -3249,13 +3249,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.335467379442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.1736438119677</v>
+        <v>202.1601389015764</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="G35" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U35" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>141.3524299557277</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>53.60629549724843</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.5974176553925</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.4920059644283</v>
+        <v>177.5814795924994</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="E38" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="F38" t="n">
-        <v>256.5897322669193</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>256.5897322669194</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.2254074071893</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>65.68908467621378</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>97.08695923455561</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3647,7 +3647,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>87.92937411295564</v>
+        <v>148.837170032383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>291.3144099306534</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>173.1049840726768</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="E41" t="n">
-        <v>291.3144099306534</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.435036317088541</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>83.48474819424257</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>25.83842112961049</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>181.8976950912513</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>65.48260134079362</v>
+        <v>200.3533096090242</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.6685720489593</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2627393580713</v>
+        <v>183.2256210783611</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>291.3144099306534</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>291.3144099306532</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T44" t="n">
-        <v>212.1682008602224</v>
+        <v>212.1682008602225</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>202.1601389015761</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>202.1601389015758</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>107.1785840011325</v>
+        <v>15.49372560971203</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>126.2254074071893</v>
       </c>
       <c r="H45" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.8384211296105</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2298571375572</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T46" t="n">
-        <v>154.3585097395773</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2627393580713</v>
+        <v>168.8100907375499</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>576.7436802667482</v>
+        <v>871.0006599946805</v>
       </c>
       <c r="C11" t="n">
-        <v>282.4867005388154</v>
+        <v>871.0006599946805</v>
       </c>
       <c r="D11" t="n">
-        <v>23.30515279445228</v>
+        <v>576.7436802667478</v>
       </c>
       <c r="E11" t="n">
-        <v>23.30515279445228</v>
+        <v>576.7436802667478</v>
       </c>
       <c r="F11" t="n">
-        <v>23.30515279445228</v>
+        <v>317.562132522385</v>
       </c>
       <c r="G11" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H11" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I11" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J11" t="n">
-        <v>68.60951215485409</v>
+        <v>68.609512154854</v>
       </c>
       <c r="K11" t="n">
-        <v>177.734048967314</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L11" t="n">
-        <v>343.0953678443592</v>
+        <v>343.0953678443594</v>
       </c>
       <c r="M11" t="n">
         <v>552.8231147334823</v>
       </c>
       <c r="N11" t="n">
-        <v>769.6931951386819</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O11" t="n">
-        <v>963.6425625903031</v>
+        <v>963.6425625903028</v>
       </c>
       <c r="P11" t="n">
-        <v>1101.141797335158</v>
+        <v>1101.141797335157</v>
       </c>
       <c r="Q11" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R11" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S11" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T11" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U11" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="V11" t="n">
-        <v>1165.257639722614</v>
+        <v>871.0006599946805</v>
       </c>
       <c r="W11" t="n">
-        <v>1165.257639722614</v>
+        <v>871.0006599946805</v>
       </c>
       <c r="X11" t="n">
-        <v>1165.257639722614</v>
+        <v>871.0006599946805</v>
       </c>
       <c r="Y11" t="n">
-        <v>871.0006599946811</v>
+        <v>871.0006599946805</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>470.8754725064143</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="C12" t="n">
-        <v>309.171799747369</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="D12" t="n">
-        <v>170.3331627375811</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="E12" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="F12" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G12" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H12" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I12" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J12" t="n">
-        <v>34.99861821101841</v>
+        <v>34.99861821101837</v>
       </c>
       <c r="K12" t="n">
-        <v>118.4854082046998</v>
+        <v>282.5092934733144</v>
       </c>
       <c r="L12" t="n">
-        <v>268.3807649495735</v>
+        <v>432.404650218188</v>
       </c>
       <c r="M12" t="n">
-        <v>459.0290315535864</v>
+        <v>623.0529168222008</v>
       </c>
       <c r="N12" t="n">
-        <v>666.4302144770298</v>
+        <v>830.4540997456443</v>
       </c>
       <c r="O12" t="n">
-        <v>838.1081941430383</v>
+        <v>1002.132079411653</v>
       </c>
       <c r="P12" t="n">
-        <v>960.1867919003915</v>
+        <v>1124.210677169006</v>
       </c>
       <c r="Q12" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R12" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S12" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T12" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U12" t="n">
-        <v>1064.132110404786</v>
+        <v>1042.874401366696</v>
       </c>
       <c r="V12" t="n">
-        <v>1064.132110404786</v>
+        <v>814.4787788150297</v>
       </c>
       <c r="W12" t="n">
-        <v>822.8162416380964</v>
+        <v>573.1629100483398</v>
       </c>
       <c r="X12" t="n">
-        <v>822.8162416380964</v>
+        <v>375.2459219261343</v>
       </c>
       <c r="Y12" t="n">
-        <v>630.2949152876752</v>
+        <v>182.7245955757132</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.2630336583338</v>
+        <v>175.7858077686751</v>
       </c>
       <c r="C13" t="n">
-        <v>866.2630336583338</v>
+        <v>175.7858077686751</v>
       </c>
       <c r="D13" t="n">
-        <v>759.1441755881663</v>
+        <v>175.7858077686751</v>
       </c>
       <c r="E13" t="n">
-        <v>607.1351613494851</v>
+        <v>175.7858077686751</v>
       </c>
       <c r="F13" t="n">
-        <v>454.6545063752623</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G13" t="n">
-        <v>286.7643458490342</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H13" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I13" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J13" t="n">
-        <v>23.30515279445228</v>
+        <v>35.78637395129608</v>
       </c>
       <c r="K13" t="n">
-        <v>174.1483322428004</v>
+        <v>186.6295533996442</v>
       </c>
       <c r="L13" t="n">
-        <v>424.7809570516976</v>
+        <v>437.2621782085413</v>
       </c>
       <c r="M13" t="n">
-        <v>700.9553656790631</v>
+        <v>713.4365868359067</v>
       </c>
       <c r="N13" t="n">
-        <v>973.7974216186841</v>
+        <v>765.1492411967054</v>
       </c>
       <c r="O13" t="n">
-        <v>1005.058043110967</v>
+        <v>980.2431821583184</v>
       </c>
       <c r="P13" t="n">
-        <v>1118.529781827242</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="Q13" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R13" t="n">
         <v>1062.029883535989</v>
       </c>
       <c r="S13" t="n">
-        <v>866.2630336583338</v>
+        <v>866.2630336583331</v>
       </c>
       <c r="T13" t="n">
-        <v>866.2630336583338</v>
+        <v>866.2630336583331</v>
       </c>
       <c r="U13" t="n">
-        <v>866.2630336583338</v>
+        <v>866.2630336583331</v>
       </c>
       <c r="V13" t="n">
-        <v>866.2630336583338</v>
+        <v>866.2630336583331</v>
       </c>
       <c r="W13" t="n">
-        <v>866.2630336583338</v>
+        <v>812.6287993654021</v>
       </c>
       <c r="X13" t="n">
-        <v>866.2630336583338</v>
+        <v>581.3763352607779</v>
       </c>
       <c r="Y13" t="n">
-        <v>866.2630336583338</v>
+        <v>359.341176453055</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1165.257639722614</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="C14" t="n">
-        <v>871.000659994681</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="D14" t="n">
-        <v>576.7436802667482</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="E14" t="n">
-        <v>576.7436802667482</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="F14" t="n">
-        <v>317.5621325223851</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="G14" t="n">
-        <v>317.5621325223851</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H14" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I14" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J14" t="n">
-        <v>68.60951215485375</v>
+        <v>68.60951215485403</v>
       </c>
       <c r="K14" t="n">
-        <v>177.7340489673138</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L14" t="n">
-        <v>343.0953678443591</v>
+        <v>343.0953678443592</v>
       </c>
       <c r="M14" t="n">
-        <v>552.823114733482</v>
+        <v>552.8231147334822</v>
       </c>
       <c r="N14" t="n">
-        <v>769.6931951386814</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O14" t="n">
-        <v>963.6425625903024</v>
+        <v>963.6425625903026</v>
       </c>
       <c r="P14" t="n">
         <v>1101.141797335157</v>
       </c>
       <c r="Q14" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R14" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S14" t="n">
-        <v>1165.257639722614</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="T14" t="n">
-        <v>1165.257639722614</v>
+        <v>816.0212727569603</v>
       </c>
       <c r="U14" t="n">
-        <v>1165.257639722614</v>
+        <v>561.319559676323</v>
       </c>
       <c r="V14" t="n">
-        <v>1165.257639722614</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="W14" t="n">
-        <v>1165.257639722614</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="X14" t="n">
-        <v>1165.257639722614</v>
+        <v>267.0625799483903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1165.257639722614</v>
+        <v>267.0625799483903</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>546.7038960266768</v>
+        <v>319.2897765071178</v>
       </c>
       <c r="C15" t="n">
-        <v>546.7038960266768</v>
+        <v>319.2897765071178</v>
       </c>
       <c r="D15" t="n">
-        <v>546.7038960266768</v>
+        <v>180.4511394973299</v>
       </c>
       <c r="E15" t="n">
-        <v>399.675886083548</v>
+        <v>150.8055643168657</v>
       </c>
       <c r="F15" t="n">
-        <v>264.9820880334223</v>
+        <v>150.8055643168657</v>
       </c>
       <c r="G15" t="n">
-        <v>137.4816765110089</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H15" t="n">
-        <v>49.40456807688712</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I15" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J15" t="n">
-        <v>182.8852135127162</v>
+        <v>34.99861821101837</v>
       </c>
       <c r="K15" t="n">
-        <v>266.3720035063976</v>
+        <v>168.6190042790633</v>
       </c>
       <c r="L15" t="n">
-        <v>416.2673602512712</v>
+        <v>318.5143610239369</v>
       </c>
       <c r="M15" t="n">
-        <v>606.915626855284</v>
+        <v>606.9156268552838</v>
       </c>
       <c r="N15" t="n">
-        <v>814.3168097787275</v>
+        <v>814.3168097787272</v>
       </c>
       <c r="O15" t="n">
-        <v>985.9947894447359</v>
+        <v>985.9947894447357</v>
       </c>
       <c r="P15" t="n">
         <v>1108.073387202089</v>
@@ -5381,28 +5381,28 @@
         <v>1149.120349755696</v>
       </c>
       <c r="R15" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S15" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T15" t="n">
-        <v>981.5225941758953</v>
+        <v>981.5225941758951</v>
       </c>
       <c r="U15" t="n">
-        <v>763.1085970672516</v>
+        <v>981.5225941758951</v>
       </c>
       <c r="V15" t="n">
-        <v>546.7038960266768</v>
+        <v>753.126971624229</v>
       </c>
       <c r="W15" t="n">
-        <v>546.7038960266768</v>
+        <v>511.811102857539</v>
       </c>
       <c r="X15" t="n">
-        <v>546.7038960266768</v>
+        <v>511.811102857539</v>
       </c>
       <c r="Y15" t="n">
-        <v>546.7038960266768</v>
+        <v>319.2897765071178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.2630336583336</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="C16" t="n">
-        <v>866.2630336583336</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="D16" t="n">
-        <v>759.1441755881663</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="E16" t="n">
-        <v>607.1351613494851</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="F16" t="n">
-        <v>454.6545063752623</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G16" t="n">
-        <v>286.7643458490342</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H16" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I16" t="n">
-        <v>23.30515279445228</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="J16" t="n">
-        <v>35.7863739512961</v>
+        <v>35.78637395129609</v>
       </c>
       <c r="K16" t="n">
-        <v>49.25032611407644</v>
+        <v>186.6295533996443</v>
       </c>
       <c r="L16" t="n">
-        <v>299.8829509229735</v>
+        <v>228.1572373245608</v>
       </c>
       <c r="M16" t="n">
-        <v>576.0573595503389</v>
+        <v>419.5780222181528</v>
       </c>
       <c r="N16" t="n">
-        <v>848.8994154899599</v>
+        <v>692.4200781577738</v>
       </c>
       <c r="O16" t="n">
-        <v>1089.994661595133</v>
+        <v>933.5153242629472</v>
       </c>
       <c r="P16" t="n">
-        <v>1165.257639722614</v>
+        <v>1118.529781827242</v>
       </c>
       <c r="Q16" t="n">
-        <v>1165.257639722614</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="R16" t="n">
-        <v>1062.029883535989</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S16" t="n">
-        <v>866.2630336583336</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T16" t="n">
-        <v>866.2630336583336</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U16" t="n">
-        <v>866.2630336583336</v>
+        <v>954.5212159954922</v>
       </c>
       <c r="V16" t="n">
-        <v>866.2630336583336</v>
+        <v>693.7859115539147</v>
       </c>
       <c r="W16" t="n">
-        <v>866.2630336583336</v>
+        <v>407.6295100713138</v>
       </c>
       <c r="X16" t="n">
-        <v>866.2630336583336</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.2630336583336</v>
+        <v>176.3770459666895</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1165.257639722613</v>
       </c>
       <c r="D17" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782505</v>
       </c>
       <c r="E17" t="n">
-        <v>871.0006599946807</v>
+        <v>611.8191122503177</v>
       </c>
       <c r="F17" t="n">
-        <v>576.743680266748</v>
+        <v>317.562132522385</v>
       </c>
       <c r="G17" t="n">
-        <v>282.4867005388153</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H17" t="n">
         <v>23.30515279445227</v>
@@ -5515,22 +5515,22 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J17" t="n">
-        <v>68.60951215485403</v>
+        <v>68.60951215485397</v>
       </c>
       <c r="K17" t="n">
         <v>177.7340489673139</v>
       </c>
       <c r="L17" t="n">
-        <v>343.0953678443598</v>
+        <v>343.0953678443591</v>
       </c>
       <c r="M17" t="n">
-        <v>552.8231147334828</v>
+        <v>552.8231147334822</v>
       </c>
       <c r="N17" t="n">
-        <v>769.6931951386823</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O17" t="n">
-        <v>963.6425625903029</v>
+        <v>963.6425625903028</v>
       </c>
       <c r="P17" t="n">
         <v>1101.141797335157</v>
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49.4045680768871</v>
+        <v>584.9212480392653</v>
       </c>
       <c r="C18" t="n">
-        <v>49.4045680768871</v>
+        <v>423.21757528022</v>
       </c>
       <c r="D18" t="n">
-        <v>49.4045680768871</v>
+        <v>284.3789382704321</v>
       </c>
       <c r="E18" t="n">
-        <v>49.4045680768871</v>
+        <v>137.3509283273033</v>
       </c>
       <c r="F18" t="n">
-        <v>49.4045680768871</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="G18" t="n">
-        <v>49.4045680768871</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H18" t="n">
-        <v>49.4045680768871</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I18" t="n">
         <v>23.30515279445227</v>
@@ -5597,49 +5597,49 @@
         <v>34.99861821101837</v>
       </c>
       <c r="K18" t="n">
-        <v>118.4854082046997</v>
+        <v>266.3720035063973</v>
       </c>
       <c r="L18" t="n">
-        <v>268.3807649495733</v>
+        <v>416.2673602512709</v>
       </c>
       <c r="M18" t="n">
-        <v>459.0290315535862</v>
+        <v>606.9156268552838</v>
       </c>
       <c r="N18" t="n">
-        <v>666.4302144770295</v>
+        <v>814.3168097787272</v>
       </c>
       <c r="O18" t="n">
-        <v>838.108194143038</v>
+        <v>985.9947894447357</v>
       </c>
       <c r="P18" t="n">
-        <v>960.1867919003912</v>
+        <v>1108.073387202089</v>
       </c>
       <c r="Q18" t="n">
-        <v>1165.257639722613</v>
+        <v>1149.120349755696</v>
       </c>
       <c r="R18" t="n">
         <v>1165.257639722613</v>
       </c>
       <c r="S18" t="n">
-        <v>1035.269357138727</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T18" t="n">
-        <v>851.5343115920085</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U18" t="n">
-        <v>633.1203144833648</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="V18" t="n">
-        <v>404.7246919316988</v>
+        <v>936.8620171709474</v>
       </c>
       <c r="W18" t="n">
-        <v>163.4088231650088</v>
+        <v>936.8620171709474</v>
       </c>
       <c r="X18" t="n">
-        <v>49.4045680768871</v>
+        <v>936.8620171709474</v>
       </c>
       <c r="Y18" t="n">
-        <v>49.4045680768871</v>
+        <v>744.3406908205262</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.30515279445227</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="C19" t="n">
-        <v>23.30515279445227</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="D19" t="n">
         <v>23.30515279445227</v>
@@ -5673,25 +5673,25 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J19" t="n">
-        <v>23.30515279445227</v>
+        <v>35.78637395129609</v>
       </c>
       <c r="K19" t="n">
-        <v>174.1483322428004</v>
+        <v>186.6295533996443</v>
       </c>
       <c r="L19" t="n">
-        <v>363.8849184713296</v>
+        <v>437.2621782085413</v>
       </c>
       <c r="M19" t="n">
-        <v>640.059327098695</v>
+        <v>640.7074237969751</v>
       </c>
       <c r="N19" t="n">
-        <v>912.901383038316</v>
+        <v>692.4200781577738</v>
       </c>
       <c r="O19" t="n">
-        <v>1153.996629143489</v>
+        <v>933.5153242629472</v>
       </c>
       <c r="P19" t="n">
-        <v>1165.257639722613</v>
+        <v>1118.529781827242</v>
       </c>
       <c r="Q19" t="n">
         <v>1165.257639722613</v>
@@ -5700,25 +5700,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S19" t="n">
-        <v>969.490789844958</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T19" t="n">
-        <v>740.7109858404849</v>
+        <v>1010.402832050536</v>
       </c>
       <c r="U19" t="n">
-        <v>453.5769056808169</v>
+        <v>723.2687518908679</v>
       </c>
       <c r="V19" t="n">
-        <v>192.8416012392395</v>
+        <v>462.5334474492904</v>
       </c>
       <c r="W19" t="n">
-        <v>23.30515279445227</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="X19" t="n">
-        <v>23.30515279445227</v>
+        <v>176.3770459666895</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.30515279445227</v>
+        <v>176.3770459666895</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1165.257639722613</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="C20" t="n">
-        <v>1165.257639722613</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="D20" t="n">
-        <v>906.0760919782504</v>
+        <v>611.8191122503176</v>
       </c>
       <c r="E20" t="n">
         <v>611.8191122503176</v>
@@ -5752,22 +5752,22 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J20" t="n">
-        <v>68.60951215485375</v>
+        <v>68.609512154854</v>
       </c>
       <c r="K20" t="n">
-        <v>177.7340489673136</v>
+        <v>177.7340489673139</v>
       </c>
       <c r="L20" t="n">
-        <v>343.0953678443589</v>
+        <v>343.0953678443594</v>
       </c>
       <c r="M20" t="n">
-        <v>552.8231147334819</v>
+        <v>552.8231147334823</v>
       </c>
       <c r="N20" t="n">
-        <v>769.6931951386814</v>
+        <v>769.6931951386816</v>
       </c>
       <c r="O20" t="n">
-        <v>963.6425625903024</v>
+        <v>963.6425625903028</v>
       </c>
       <c r="P20" t="n">
         <v>1101.141797335157</v>
@@ -5779,25 +5779,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="T20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="U20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="V20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="W20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="X20" t="n">
-        <v>1165.257639722613</v>
+        <v>1030.332586757185</v>
       </c>
       <c r="Y20" t="n">
-        <v>1165.257639722613</v>
+        <v>736.0756070292521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>323.8474625632855</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="C21" t="n">
-        <v>162.1437898042402</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="D21" t="n">
         <v>23.30515279445227</v>
@@ -5831,28 +5831,28 @@
         <v>23.30515279445227</v>
       </c>
       <c r="J21" t="n">
-        <v>34.99861821101837</v>
+        <v>197.2777806941245</v>
       </c>
       <c r="K21" t="n">
-        <v>118.4854082046997</v>
+        <v>280.7645706878059</v>
       </c>
       <c r="L21" t="n">
-        <v>268.3807649495733</v>
+        <v>430.6599274326795</v>
       </c>
       <c r="M21" t="n">
-        <v>459.0290315535862</v>
+        <v>621.3081940366924</v>
       </c>
       <c r="N21" t="n">
-        <v>666.4302144770295</v>
+        <v>828.7093769601358</v>
       </c>
       <c r="O21" t="n">
-        <v>838.108194143038</v>
+        <v>1000.387356626144</v>
       </c>
       <c r="P21" t="n">
-        <v>960.1867919003912</v>
+        <v>1122.465954383498</v>
       </c>
       <c r="Q21" t="n">
-        <v>1149.120349755696</v>
+        <v>1163.512916937105</v>
       </c>
       <c r="R21" t="n">
         <v>1165.257639722613</v>
@@ -5864,19 +5864,19 @@
         <v>1165.257639722613</v>
       </c>
       <c r="U21" t="n">
-        <v>955.6016458026021</v>
+        <v>946.8436426139697</v>
       </c>
       <c r="V21" t="n">
-        <v>955.6016458026021</v>
+        <v>718.4480200623036</v>
       </c>
       <c r="W21" t="n">
-        <v>714.2857770359121</v>
+        <v>477.1321512956137</v>
       </c>
       <c r="X21" t="n">
-        <v>516.3687889137067</v>
+        <v>279.2151631734082</v>
       </c>
       <c r="Y21" t="n">
-        <v>323.8474625632855</v>
+        <v>86.69383682298704</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.1441755881663</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="C22" t="n">
-        <v>759.1441755881663</v>
+        <v>506.1265617382429</v>
       </c>
       <c r="D22" t="n">
-        <v>759.1441755881663</v>
+        <v>495.6849825335844</v>
       </c>
       <c r="E22" t="n">
-        <v>607.1351613494851</v>
+        <v>343.6759682949032</v>
       </c>
       <c r="F22" t="n">
-        <v>454.6545063752623</v>
+        <v>191.1953133206804</v>
       </c>
       <c r="G22" t="n">
-        <v>286.7643458490342</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="H22" t="n">
-        <v>136.5456748791408</v>
+        <v>23.30515279445227</v>
       </c>
       <c r="I22" t="n">
         <v>23.30515279445227</v>
@@ -5916,16 +5916,16 @@
         <v>186.6295533996442</v>
       </c>
       <c r="L22" t="n">
-        <v>228.1572373245608</v>
+        <v>317.1570605759581</v>
       </c>
       <c r="M22" t="n">
-        <v>504.3316459519262</v>
+        <v>593.3314692033235</v>
       </c>
       <c r="N22" t="n">
-        <v>777.1737018915471</v>
+        <v>866.1735251429445</v>
       </c>
       <c r="O22" t="n">
-        <v>1018.26894799672</v>
+        <v>1107.268771248118</v>
       </c>
       <c r="P22" t="n">
         <v>1118.529781827242</v>
@@ -5934,28 +5934,28 @@
         <v>1165.257639722613</v>
       </c>
       <c r="R22" t="n">
-        <v>1062.029883535989</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="S22" t="n">
-        <v>866.2630336583331</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T22" t="n">
-        <v>759.1441755881663</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="U22" t="n">
-        <v>759.1441755881663</v>
+        <v>936.4778357181401</v>
       </c>
       <c r="V22" t="n">
-        <v>759.1441755881663</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="W22" t="n">
-        <v>759.1441755881663</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="X22" t="n">
-        <v>759.1441755881663</v>
+        <v>675.7425312765627</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.1441755881663</v>
+        <v>675.7425312765627</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>745.8988403565249</v>
+        <v>769.258487521714</v>
       </c>
       <c r="C23" t="n">
-        <v>399.2803769398969</v>
+        <v>769.258487521714</v>
       </c>
       <c r="D23" t="n">
-        <v>399.2803769398969</v>
+        <v>769.258487521714</v>
       </c>
       <c r="E23" t="n">
         <v>399.2803769398969</v>
@@ -5989,25 +5989,25 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J23" t="n">
-        <v>292.2339694449405</v>
+        <v>292.2339694449406</v>
       </c>
       <c r="K23" t="n">
-        <v>401.3585062574003</v>
+        <v>401.3585062574004</v>
       </c>
       <c r="L23" t="n">
-        <v>566.7198251344456</v>
+        <v>566.7198251344457</v>
       </c>
       <c r="M23" t="n">
-        <v>776.4475720235686</v>
+        <v>776.4475720235688</v>
       </c>
       <c r="N23" t="n">
-        <v>993.317652428768</v>
+        <v>993.3176524287683</v>
       </c>
       <c r="O23" t="n">
         <v>1187.267019880389</v>
       </c>
       <c r="P23" t="n">
-        <v>1324.766254625243</v>
+        <v>1324.766254625244</v>
       </c>
       <c r="Q23" t="n">
         <v>1412.635599970844</v>
@@ -6016,25 +6016,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S23" t="n">
-        <v>1330.188264938567</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="T23" t="n">
-        <v>1115.876950938342</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="U23" t="n">
-        <v>1115.876950938342</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="V23" t="n">
-        <v>1115.876950938342</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="W23" t="n">
-        <v>1115.876950938342</v>
+        <v>1102.578387761596</v>
       </c>
       <c r="X23" t="n">
-        <v>1115.876950938342</v>
+        <v>1102.578387761596</v>
       </c>
       <c r="Y23" t="n">
-        <v>1115.876950938342</v>
+        <v>1102.578387761596</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>502.9720013524767</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="C24" t="n">
-        <v>341.2683285934314</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="D24" t="n">
-        <v>202.4296915836435</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="E24" t="n">
-        <v>55.40168164051475</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="F24" t="n">
-        <v>55.40168164051475</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="G24" t="n">
-        <v>55.40168164051475</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="H24" t="n">
-        <v>55.40168164051475</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I24" t="n">
         <v>29.3022663580799</v>
@@ -6080,7 +6080,7 @@
         <v>652.539125687545</v>
       </c>
       <c r="N24" t="n">
-        <v>859.9403086109884</v>
+        <v>859.9403086109885</v>
       </c>
       <c r="O24" t="n">
         <v>1031.618288276997</v>
@@ -6104,16 +6104,16 @@
         <v>1062.964275248633</v>
       </c>
       <c r="V24" t="n">
-        <v>1062.964275248633</v>
+        <v>834.5686526969671</v>
       </c>
       <c r="W24" t="n">
-        <v>821.648406481943</v>
+        <v>593.2527839302771</v>
       </c>
       <c r="X24" t="n">
-        <v>821.648406481943</v>
+        <v>395.3357958080717</v>
       </c>
       <c r="Y24" t="n">
-        <v>629.1270801315218</v>
+        <v>202.8144694576505</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>351.9901290686369</v>
+        <v>402.3077278156758</v>
       </c>
       <c r="C25" t="n">
-        <v>182.3741595303172</v>
+        <v>232.6917582773561</v>
       </c>
       <c r="D25" t="n">
-        <v>29.3022663580799</v>
+        <v>232.6917582773561</v>
       </c>
       <c r="E25" t="n">
-        <v>29.3022663580799</v>
+        <v>232.6917582773561</v>
       </c>
       <c r="F25" t="n">
-        <v>29.3022663580799</v>
+        <v>232.6917582773561</v>
       </c>
       <c r="G25" t="n">
-        <v>29.3022663580799</v>
+        <v>64.80159775112801</v>
       </c>
       <c r="H25" t="n">
         <v>29.3022663580799</v>
@@ -6147,19 +6147,19 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J25" t="n">
-        <v>41.78348751492371</v>
+        <v>41.78348751492365</v>
       </c>
       <c r="K25" t="n">
         <v>192.6266669632718</v>
       </c>
       <c r="L25" t="n">
-        <v>443.2592917721688</v>
+        <v>443.2592917721689</v>
       </c>
       <c r="M25" t="n">
-        <v>719.4337003995345</v>
+        <v>719.4337003995344</v>
       </c>
       <c r="N25" t="n">
-        <v>992.2757563391554</v>
+        <v>992.2757563391556</v>
       </c>
       <c r="O25" t="n">
         <v>1233.371002444329</v>
@@ -6177,22 +6177,22 @@
         <v>1465.113317903995</v>
       </c>
       <c r="T25" t="n">
-        <v>1465.113317903995</v>
+        <v>1236.333513899522</v>
       </c>
       <c r="U25" t="n">
-        <v>1274.989522147965</v>
+        <v>949.1994337398542</v>
       </c>
       <c r="V25" t="n">
-        <v>1274.989522147965</v>
+        <v>688.4641292982767</v>
       </c>
       <c r="W25" t="n">
-        <v>988.8331206653638</v>
+        <v>402.3077278156758</v>
       </c>
       <c r="X25" t="n">
-        <v>757.5806565607396</v>
+        <v>402.3077278156758</v>
       </c>
       <c r="Y25" t="n">
-        <v>535.5454977530167</v>
+        <v>402.3077278156758</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>853.5865160007468</v>
+        <v>873.4323307192992</v>
       </c>
       <c r="C26" t="n">
-        <v>853.5865160007468</v>
+        <v>873.4323307192992</v>
       </c>
       <c r="D26" t="n">
-        <v>853.5865160007468</v>
+        <v>503.4542201374822</v>
       </c>
       <c r="E26" t="n">
-        <v>853.5865160007468</v>
+        <v>133.4761095556652</v>
       </c>
       <c r="F26" t="n">
-        <v>483.6084054189298</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="G26" t="n">
-        <v>113.6302948371128</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="H26" t="n">
-        <v>113.6302948371128</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I26" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J26" t="n">
-        <v>292.2339694449405</v>
+        <v>74.60662571848161</v>
       </c>
       <c r="K26" t="n">
-        <v>401.3585062574003</v>
+        <v>183.7311625309415</v>
       </c>
       <c r="L26" t="n">
-        <v>566.7198251344456</v>
+        <v>349.0924814079868</v>
       </c>
       <c r="M26" t="n">
-        <v>776.4475720235686</v>
+        <v>558.8202282971099</v>
       </c>
       <c r="N26" t="n">
-        <v>993.317652428768</v>
+        <v>775.6903087023094</v>
       </c>
       <c r="O26" t="n">
-        <v>1187.267019880389</v>
+        <v>985.9042114021493</v>
       </c>
       <c r="P26" t="n">
-        <v>1324.766254625243</v>
+        <v>1348.519757583388</v>
       </c>
       <c r="Q26" t="n">
         <v>1412.635599970844</v>
@@ -6256,22 +6256,22 @@
         <v>1465.113317903995</v>
       </c>
       <c r="T26" t="n">
-        <v>1250.80200390377</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="U26" t="n">
-        <v>1223.564626582564</v>
+        <v>1210.411604823358</v>
       </c>
       <c r="V26" t="n">
-        <v>1223.564626582564</v>
+        <v>873.4323307192992</v>
       </c>
       <c r="W26" t="n">
-        <v>1223.564626582564</v>
+        <v>873.4323307192992</v>
       </c>
       <c r="X26" t="n">
-        <v>1223.564626582564</v>
+        <v>873.4323307192992</v>
       </c>
       <c r="Y26" t="n">
-        <v>1223.564626582564</v>
+        <v>873.4323307192992</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202.8144694576503</v>
+        <v>725.7429078367243</v>
       </c>
       <c r="C27" t="n">
-        <v>41.11079669860499</v>
+        <v>564.039235077679</v>
       </c>
       <c r="D27" t="n">
-        <v>41.11079669860499</v>
+        <v>425.200598067891</v>
       </c>
       <c r="E27" t="n">
-        <v>41.11079669860499</v>
+        <v>278.1725881247622</v>
       </c>
       <c r="F27" t="n">
-        <v>41.11079669860499</v>
+        <v>143.4787900746365</v>
       </c>
       <c r="G27" t="n">
-        <v>41.11079669860499</v>
+        <v>143.4787900746365</v>
       </c>
       <c r="H27" t="n">
-        <v>41.11079669860499</v>
+        <v>55.40168164051474</v>
       </c>
       <c r="I27" t="n">
         <v>29.3022663580799</v>
@@ -6308,22 +6308,22 @@
         <v>203.2748942577522</v>
       </c>
       <c r="K27" t="n">
-        <v>565.8904404389909</v>
+        <v>311.9955023386586</v>
       </c>
       <c r="L27" t="n">
-        <v>715.7857971838645</v>
+        <v>461.8908590835322</v>
       </c>
       <c r="M27" t="n">
-        <v>906.4340637878773</v>
+        <v>652.539125687545</v>
       </c>
       <c r="N27" t="n">
-        <v>1113.835246711321</v>
+        <v>859.9403086109885</v>
       </c>
       <c r="O27" t="n">
-        <v>1285.513226377329</v>
+        <v>1031.618288276997</v>
       </c>
       <c r="P27" t="n">
-        <v>1407.591824134682</v>
+        <v>1153.69688603435</v>
       </c>
       <c r="Q27" t="n">
         <v>1465.113317903995</v>
@@ -6332,25 +6332,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S27" t="n">
-        <v>1465.113317903995</v>
+        <v>1335.125035320109</v>
       </c>
       <c r="T27" t="n">
-        <v>1281.378272357277</v>
+        <v>1335.125035320109</v>
       </c>
       <c r="U27" t="n">
-        <v>1062.964275248633</v>
+        <v>1116.711038211465</v>
       </c>
       <c r="V27" t="n">
-        <v>834.5686526969669</v>
+        <v>888.3154156597991</v>
       </c>
       <c r="W27" t="n">
-        <v>593.2527839302769</v>
+        <v>888.3154156597991</v>
       </c>
       <c r="X27" t="n">
-        <v>395.3357958080715</v>
+        <v>888.3154156597991</v>
       </c>
       <c r="Y27" t="n">
-        <v>202.8144694576503</v>
+        <v>885.1623506179851</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>918.2131823240312</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="C28" t="n">
-        <v>918.2131823240312</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="D28" t="n">
-        <v>765.1412891517939</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="E28" t="n">
-        <v>613.1322749131127</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="F28" t="n">
-        <v>460.6516199388899</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="G28" t="n">
-        <v>292.7614594126618</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5427884427685</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I28" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J28" t="n">
-        <v>41.78348751492371</v>
+        <v>41.78348751492365</v>
       </c>
       <c r="K28" t="n">
         <v>192.6266669632718</v>
       </c>
       <c r="L28" t="n">
-        <v>443.259291772169</v>
+        <v>443.2592917721689</v>
       </c>
       <c r="M28" t="n">
-        <v>719.4337003995345</v>
+        <v>719.4337003995344</v>
       </c>
       <c r="N28" t="n">
-        <v>992.2757563391555</v>
+        <v>992.2757563391556</v>
       </c>
       <c r="O28" t="n">
         <v>1233.371002444329</v>
@@ -6408,28 +6408,28 @@
         <v>1465.113317903995</v>
       </c>
       <c r="R28" t="n">
-        <v>1361.88556171737</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="S28" t="n">
-        <v>1361.88556171737</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="T28" t="n">
-        <v>1361.88556171737</v>
+        <v>1236.333513899522</v>
       </c>
       <c r="U28" t="n">
-        <v>1361.88556171737</v>
+        <v>949.1994337398542</v>
       </c>
       <c r="V28" t="n">
-        <v>1361.88556171737</v>
+        <v>688.4641292982767</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.88556171737</v>
+        <v>402.3077278156758</v>
       </c>
       <c r="X28" t="n">
-        <v>1323.803709816134</v>
+        <v>251.3374251658028</v>
       </c>
       <c r="Y28" t="n">
-        <v>1101.768551008411</v>
+        <v>29.3022663580799</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>758.1559332181191</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="C29" t="n">
-        <v>758.1559332181191</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="D29" t="n">
-        <v>758.1559332181191</v>
+        <v>745.8988403565252</v>
       </c>
       <c r="E29" t="n">
-        <v>388.1778226363022</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="F29" t="n">
-        <v>29.3022663580799</v>
+        <v>399.2803769398969</v>
       </c>
       <c r="G29" t="n">
         <v>29.3022663580799</v>
@@ -6463,25 +6463,25 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J29" t="n">
-        <v>74.60662571848155</v>
+        <v>292.2339694449406</v>
       </c>
       <c r="K29" t="n">
-        <v>437.2221718997203</v>
+        <v>401.3585062574004</v>
       </c>
       <c r="L29" t="n">
-        <v>602.5834907767655</v>
+        <v>566.7198251344457</v>
       </c>
       <c r="M29" t="n">
-        <v>812.3112376658885</v>
+        <v>776.4475720235688</v>
       </c>
       <c r="N29" t="n">
-        <v>1029.181318071088</v>
+        <v>993.3176524287683</v>
       </c>
       <c r="O29" t="n">
-        <v>1223.130685522709</v>
+        <v>1187.267019880389</v>
       </c>
       <c r="P29" t="n">
-        <v>1360.629920267563</v>
+        <v>1324.766254625244</v>
       </c>
       <c r="Q29" t="n">
         <v>1465.113317903995</v>
@@ -6490,25 +6490,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S29" t="n">
-        <v>1465.113317903995</v>
+        <v>1330.188264938567</v>
       </c>
       <c r="T29" t="n">
-        <v>1465.113317903995</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="U29" t="n">
-        <v>1465.113317903995</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="V29" t="n">
-        <v>1128.134043799936</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="W29" t="n">
-        <v>1128.134043799936</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="X29" t="n">
-        <v>758.1559332181191</v>
+        <v>1115.876950938342</v>
       </c>
       <c r="Y29" t="n">
-        <v>758.1559332181191</v>
+        <v>1115.876950938342</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>536.3746465281165</v>
+        <v>604.3729975924552</v>
       </c>
       <c r="C30" t="n">
-        <v>374.6709737690712</v>
+        <v>442.66932483341</v>
       </c>
       <c r="D30" t="n">
-        <v>374.6709737690712</v>
+        <v>303.830687823622</v>
       </c>
       <c r="E30" t="n">
-        <v>227.6429638259424</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="F30" t="n">
-        <v>92.94916577581679</v>
+        <v>156.8026778804933</v>
       </c>
       <c r="G30" t="n">
         <v>29.3022663580799</v>
@@ -6542,19 +6542,19 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J30" t="n">
-        <v>40.99573177464598</v>
+        <v>40.995731774646</v>
       </c>
       <c r="K30" t="n">
-        <v>311.9955023386584</v>
+        <v>311.9955023386586</v>
       </c>
       <c r="L30" t="n">
-        <v>461.890859083532</v>
+        <v>461.8908590835322</v>
       </c>
       <c r="M30" t="n">
-        <v>652.5391256875448</v>
+        <v>652.539125687545</v>
       </c>
       <c r="N30" t="n">
-        <v>859.9403086109882</v>
+        <v>859.9403086109885</v>
       </c>
       <c r="O30" t="n">
         <v>1031.618288276997</v>
@@ -6569,25 +6569,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S30" t="n">
-        <v>1335.125035320108</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="T30" t="n">
-        <v>1335.125035320108</v>
+        <v>1382.626377398009</v>
       </c>
       <c r="U30" t="n">
-        <v>1116.711038211465</v>
+        <v>1382.626377398009</v>
       </c>
       <c r="V30" t="n">
-        <v>888.3154156597986</v>
+        <v>1154.230754846343</v>
       </c>
       <c r="W30" t="n">
-        <v>888.3154156597986</v>
+        <v>1154.230754846343</v>
       </c>
       <c r="X30" t="n">
-        <v>888.3154156597986</v>
+        <v>956.3137667241373</v>
       </c>
       <c r="Y30" t="n">
-        <v>695.7940893093775</v>
+        <v>763.7924403737161</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.79109934196</v>
+        <v>806.6984692514343</v>
       </c>
       <c r="C31" t="n">
-        <v>916.1751298036398</v>
+        <v>637.0824997131145</v>
       </c>
       <c r="D31" t="n">
-        <v>763.1032366314025</v>
+        <v>484.0106065408773</v>
       </c>
       <c r="E31" t="n">
-        <v>611.0942223927213</v>
+        <v>332.0015923021961</v>
       </c>
       <c r="F31" t="n">
-        <v>458.6135674184985</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="G31" t="n">
-        <v>292.7614594126618</v>
+        <v>179.5209373279732</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5427884427685</v>
+        <v>29.3022663580799</v>
       </c>
       <c r="I31" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J31" t="n">
-        <v>41.78348751492376</v>
+        <v>41.78348751492371</v>
       </c>
       <c r="K31" t="n">
         <v>192.6266669632719</v>
       </c>
       <c r="L31" t="n">
-        <v>443.2592917721689</v>
+        <v>443.259291772169</v>
       </c>
       <c r="M31" t="n">
-        <v>719.4337003995344</v>
+        <v>719.4337003995346</v>
       </c>
       <c r="N31" t="n">
-        <v>992.2757563391552</v>
+        <v>992.2757563391556</v>
       </c>
       <c r="O31" t="n">
-        <v>1233.371002444328</v>
+        <v>1233.371002444329</v>
       </c>
       <c r="P31" t="n">
-        <v>1418.385460008623</v>
+        <v>1418.385460008624</v>
       </c>
       <c r="Q31" t="n">
         <v>1465.113317903995</v>
@@ -6648,25 +6648,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S31" t="n">
-        <v>1269.346468026339</v>
+        <v>1269.34646802634</v>
       </c>
       <c r="T31" t="n">
-        <v>1269.346468026339</v>
+        <v>1040.566664021867</v>
       </c>
       <c r="U31" t="n">
-        <v>1269.346468026339</v>
+        <v>1040.566664021867</v>
       </c>
       <c r="V31" t="n">
-        <v>1269.346468026339</v>
+        <v>990.2538379358141</v>
       </c>
       <c r="W31" t="n">
-        <v>1269.346468026339</v>
+        <v>990.2538379358141</v>
       </c>
       <c r="X31" t="n">
-        <v>1269.346468026339</v>
+        <v>990.2538379358141</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.346468026339</v>
+        <v>990.2538379358141</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1102.578387761596</v>
+        <v>725.1570967403613</v>
       </c>
       <c r="C32" t="n">
-        <v>1102.578387761596</v>
+        <v>725.1570967403613</v>
       </c>
       <c r="D32" t="n">
-        <v>1102.578387761596</v>
+        <v>725.1570967403613</v>
       </c>
       <c r="E32" t="n">
-        <v>769.258487521714</v>
+        <v>355.1789861585443</v>
       </c>
       <c r="F32" t="n">
-        <v>399.2803769398969</v>
+        <v>355.1789861585443</v>
       </c>
       <c r="G32" t="n">
         <v>29.3022663580799</v>
@@ -6703,25 +6703,25 @@
         <v>292.2339694449406</v>
       </c>
       <c r="K32" t="n">
-        <v>401.3585062574004</v>
+        <v>425.1120092155447</v>
       </c>
       <c r="L32" t="n">
-        <v>566.7198251344457</v>
+        <v>590.47332809259</v>
       </c>
       <c r="M32" t="n">
-        <v>776.4475720235688</v>
+        <v>800.2010749817131</v>
       </c>
       <c r="N32" t="n">
-        <v>993.3176524287683</v>
+        <v>1017.071155386913</v>
       </c>
       <c r="O32" t="n">
-        <v>1263.498240771685</v>
+        <v>1211.020522838534</v>
       </c>
       <c r="P32" t="n">
-        <v>1400.997475516539</v>
+        <v>1348.519757583388</v>
       </c>
       <c r="Q32" t="n">
-        <v>1465.113317903995</v>
+        <v>1412.635599970844</v>
       </c>
       <c r="R32" t="n">
         <v>1465.113317903995</v>
@@ -6739,13 +6739,13 @@
         <v>1465.113317903995</v>
       </c>
       <c r="W32" t="n">
-        <v>1102.578387761596</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="X32" t="n">
-        <v>1102.578387761596</v>
+        <v>1095.135207322178</v>
       </c>
       <c r="Y32" t="n">
-        <v>1102.578387761596</v>
+        <v>725.1570967403613</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>739.0667956425809</v>
+        <v>526.6015943078696</v>
       </c>
       <c r="C33" t="n">
-        <v>577.3631228835357</v>
+        <v>526.6015943078696</v>
       </c>
       <c r="D33" t="n">
-        <v>438.5244858737477</v>
+        <v>526.6015943078696</v>
       </c>
       <c r="E33" t="n">
-        <v>291.4964759306189</v>
+        <v>379.5735843647408</v>
       </c>
       <c r="F33" t="n">
-        <v>156.8026778804933</v>
+        <v>244.8797863146151</v>
       </c>
       <c r="G33" t="n">
-        <v>29.3022663580799</v>
+        <v>117.3793747922017</v>
       </c>
       <c r="H33" t="n">
         <v>29.3022663580799</v>
@@ -6779,28 +6779,28 @@
         <v>29.3022663580799</v>
       </c>
       <c r="J33" t="n">
-        <v>40.995731774646</v>
+        <v>203.2748942577522</v>
       </c>
       <c r="K33" t="n">
-        <v>341.8280232308107</v>
+        <v>295.8582123717413</v>
       </c>
       <c r="L33" t="n">
-        <v>491.7233799756843</v>
+        <v>445.7535691166149</v>
       </c>
       <c r="M33" t="n">
-        <v>682.3716465796972</v>
+        <v>636.4018357206278</v>
       </c>
       <c r="N33" t="n">
-        <v>889.7728295031407</v>
+        <v>843.8030186440712</v>
       </c>
       <c r="O33" t="n">
-        <v>1061.450809169149</v>
+        <v>1015.48099831008</v>
       </c>
       <c r="P33" t="n">
-        <v>1424.066355350388</v>
+        <v>1137.559596067433</v>
       </c>
       <c r="Q33" t="n">
-        <v>1465.113317903995</v>
+        <v>1448.976027937078</v>
       </c>
       <c r="R33" t="n">
         <v>1465.113317903995</v>
@@ -6809,22 +6809,22 @@
         <v>1465.113317903995</v>
       </c>
       <c r="T33" t="n">
-        <v>1288.924552896468</v>
+        <v>1465.113317903995</v>
       </c>
       <c r="U33" t="n">
-        <v>1288.924552896468</v>
+        <v>1353.649516529692</v>
       </c>
       <c r="V33" t="n">
-        <v>1288.924552896468</v>
+        <v>1125.253893978026</v>
       </c>
       <c r="W33" t="n">
-        <v>1288.924552896468</v>
+        <v>883.9380252113359</v>
       </c>
       <c r="X33" t="n">
-        <v>1091.007564774263</v>
+        <v>686.0210370891305</v>
       </c>
       <c r="Y33" t="n">
-        <v>898.4862384238418</v>
+        <v>686.0210370891305</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.3022663580799</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="C34" t="n">
-        <v>29.3022663580799</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="D34" t="n">
-        <v>29.3022663580799</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="E34" t="n">
-        <v>29.3022663580799</v>
+        <v>460.6516199388899</v>
       </c>
       <c r="F34" t="n">
-        <v>29.3022663580799</v>
+        <v>460.6516199388899</v>
       </c>
       <c r="G34" t="n">
-        <v>29.3022663580799</v>
+        <v>292.7614594126618</v>
       </c>
       <c r="H34" t="n">
-        <v>29.3022663580799</v>
+        <v>142.5427884427684</v>
       </c>
       <c r="I34" t="n">
         <v>29.3022663580799</v>
       </c>
       <c r="J34" t="n">
-        <v>41.78348751492365</v>
+        <v>41.78348751492373</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6266669632718</v>
+        <v>192.6266669632719</v>
       </c>
       <c r="L34" t="n">
         <v>443.2592917721689</v>
@@ -6870,7 +6870,7 @@
         <v>719.4337003995344</v>
       </c>
       <c r="N34" t="n">
-        <v>992.2757563391556</v>
+        <v>992.2757563391554</v>
       </c>
       <c r="O34" t="n">
         <v>1233.371002444329</v>
@@ -6885,25 +6885,25 @@
         <v>1465.113317903995</v>
       </c>
       <c r="S34" t="n">
-        <v>1465.113317903995</v>
+        <v>1389.30982278329</v>
       </c>
       <c r="T34" t="n">
-        <v>1236.333513899522</v>
+        <v>1160.530018778816</v>
       </c>
       <c r="U34" t="n">
-        <v>949.1994337398542</v>
+        <v>873.3959386191484</v>
       </c>
       <c r="V34" t="n">
-        <v>688.4641292982767</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="W34" t="n">
-        <v>402.3077278156758</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="X34" t="n">
-        <v>171.0552637110516</v>
+        <v>612.6606341775711</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.3022663580799</v>
+        <v>612.6606341775711</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>611.8191122503177</v>
+        <v>611.819112250318</v>
       </c>
       <c r="C35" t="n">
-        <v>611.8191122503177</v>
+        <v>611.819112250318</v>
       </c>
       <c r="D35" t="n">
-        <v>611.8191122503177</v>
+        <v>611.819112250318</v>
       </c>
       <c r="E35" t="n">
-        <v>611.8191122503177</v>
+        <v>611.819112250318</v>
       </c>
       <c r="F35" t="n">
-        <v>317.562132522385</v>
+        <v>317.5621325223851</v>
       </c>
       <c r="G35" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="H35" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I35" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J35" t="n">
-        <v>68.60951215485397</v>
+        <v>68.60951215485399</v>
       </c>
       <c r="K35" t="n">
         <v>177.7340489673139</v>
@@ -6961,28 +6961,28 @@
         <v>1165.257639722613</v>
       </c>
       <c r="R35" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S35" t="n">
         <v>1030.332586757185</v>
       </c>
       <c r="T35" t="n">
-        <v>1030.332586757185</v>
+        <v>816.0212727569608</v>
       </c>
       <c r="U35" t="n">
-        <v>775.6308736765477</v>
+        <v>816.0212727569608</v>
       </c>
       <c r="V35" t="n">
-        <v>775.6308736765477</v>
+        <v>816.0212727569608</v>
       </c>
       <c r="W35" t="n">
-        <v>775.6308736765477</v>
+        <v>816.0212727569608</v>
       </c>
       <c r="X35" t="n">
-        <v>775.6308736765477</v>
+        <v>816.0212727569608</v>
       </c>
       <c r="Y35" t="n">
-        <v>775.6308736765477</v>
+        <v>816.0212727569608</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>733.0696820789533</v>
+        <v>759.1690973613881</v>
       </c>
       <c r="C36" t="n">
-        <v>571.366009319908</v>
+        <v>597.4654246023429</v>
       </c>
       <c r="D36" t="n">
-        <v>432.5273723101201</v>
+        <v>458.6267875925549</v>
       </c>
       <c r="E36" t="n">
-        <v>285.4993623669913</v>
+        <v>311.5987776494262</v>
       </c>
       <c r="F36" t="n">
-        <v>150.8055643168657</v>
+        <v>176.9049795993005</v>
       </c>
       <c r="G36" t="n">
-        <v>23.30515279445227</v>
+        <v>49.40456807688712</v>
       </c>
       <c r="H36" t="n">
-        <v>23.30515279445227</v>
+        <v>49.40456807688712</v>
       </c>
       <c r="I36" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J36" t="n">
-        <v>34.99861821101837</v>
+        <v>197.2777806941245</v>
       </c>
       <c r="K36" t="n">
-        <v>118.4854082046997</v>
+        <v>280.7645706878059</v>
       </c>
       <c r="L36" t="n">
-        <v>268.3807649495733</v>
+        <v>430.6599274326795</v>
       </c>
       <c r="M36" t="n">
-        <v>459.0290315535862</v>
+        <v>621.3081940366924</v>
       </c>
       <c r="N36" t="n">
-        <v>666.4302144770295</v>
+        <v>828.7093769601358</v>
       </c>
       <c r="O36" t="n">
-        <v>838.108194143038</v>
+        <v>1000.387356626144</v>
       </c>
       <c r="P36" t="n">
-        <v>960.1867919003912</v>
+        <v>1122.465954383498</v>
       </c>
       <c r="Q36" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R36" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S36" t="n">
-        <v>1035.269357138727</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T36" t="n">
-        <v>892.4891248602141</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U36" t="n">
-        <v>892.4891248602141</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="V36" t="n">
-        <v>892.4891248602141</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="W36" t="n">
-        <v>892.4891248602141</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="X36" t="n">
-        <v>892.4891248602141</v>
+        <v>1111.10986649307</v>
       </c>
       <c r="Y36" t="n">
-        <v>892.4891248602141</v>
+        <v>918.588540142649</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345.9930155050092</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="C37" t="n">
-        <v>176.3770459666895</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="D37" t="n">
-        <v>23.30515279445227</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="E37" t="n">
-        <v>23.30515279445227</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="F37" t="n">
-        <v>23.30515279445227</v>
+        <v>341.4139842905737</v>
       </c>
       <c r="G37" t="n">
-        <v>23.30515279445227</v>
+        <v>173.5238237643456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I37" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J37" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="K37" t="n">
         <v>174.1483322428004</v>
       </c>
       <c r="L37" t="n">
-        <v>424.7809570516975</v>
+        <v>317.1570605759586</v>
       </c>
       <c r="M37" t="n">
-        <v>640.7074237969751</v>
+        <v>593.331469203324</v>
       </c>
       <c r="N37" t="n">
-        <v>692.4200781577738</v>
+        <v>866.173525142945</v>
       </c>
       <c r="O37" t="n">
-        <v>933.5153242629472</v>
+        <v>1107.268771248118</v>
       </c>
       <c r="P37" t="n">
         <v>1118.529781827242</v>
       </c>
       <c r="Q37" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R37" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S37" t="n">
-        <v>1045.46226835353</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T37" t="n">
-        <v>816.682464349057</v>
+        <v>985.8824078109983</v>
       </c>
       <c r="U37" t="n">
-        <v>529.548384189389</v>
+        <v>985.8824078109983</v>
       </c>
       <c r="V37" t="n">
-        <v>529.548384189389</v>
+        <v>725.1471033694208</v>
       </c>
       <c r="W37" t="n">
-        <v>529.548384189389</v>
+        <v>725.1471033694208</v>
       </c>
       <c r="X37" t="n">
-        <v>529.548384189389</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.548384189389</v>
+        <v>493.8946392647966</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782508</v>
       </c>
       <c r="C38" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782508</v>
       </c>
       <c r="D38" t="n">
-        <v>871.0006599946807</v>
+        <v>611.819112250318</v>
       </c>
       <c r="E38" t="n">
-        <v>576.743680266748</v>
+        <v>317.5621325223851</v>
       </c>
       <c r="F38" t="n">
-        <v>317.562132522385</v>
+        <v>317.5621325223851</v>
       </c>
       <c r="G38" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="H38" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I38" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J38" t="n">
-        <v>68.60951215485397</v>
+        <v>68.60951215485431</v>
       </c>
       <c r="K38" t="n">
-        <v>177.7340489673139</v>
+        <v>177.7340489673142</v>
       </c>
       <c r="L38" t="n">
-        <v>343.0953678443592</v>
+        <v>343.0953678443595</v>
       </c>
       <c r="M38" t="n">
-        <v>552.8231147334823</v>
+        <v>552.8231147334826</v>
       </c>
       <c r="N38" t="n">
-        <v>769.6931951386817</v>
+        <v>769.6931951386821</v>
       </c>
       <c r="O38" t="n">
-        <v>963.6425625903028</v>
+        <v>963.6425625903032</v>
       </c>
       <c r="P38" t="n">
-        <v>1101.141797335157</v>
+        <v>1101.141797335158</v>
       </c>
       <c r="Q38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="V38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="W38" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="X38" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782508</v>
       </c>
       <c r="Y38" t="n">
-        <v>1165.257639722613</v>
+        <v>906.0760919782508</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.30515279445227</v>
+        <v>503.0248220538367</v>
       </c>
       <c r="C39" t="n">
-        <v>23.30515279445227</v>
+        <v>503.0248220538367</v>
       </c>
       <c r="D39" t="n">
-        <v>23.30515279445227</v>
+        <v>364.1861850440488</v>
       </c>
       <c r="E39" t="n">
-        <v>23.30515279445227</v>
+        <v>217.15817510092</v>
       </c>
       <c r="F39" t="n">
-        <v>23.30515279445227</v>
+        <v>217.15817510092</v>
       </c>
       <c r="G39" t="n">
-        <v>23.30515279445227</v>
+        <v>89.65776357850662</v>
       </c>
       <c r="H39" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I39" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J39" t="n">
         <v>197.2777806941245</v>
@@ -7259,46 +7259,46 @@
         <v>280.7645706878059</v>
       </c>
       <c r="L39" t="n">
-        <v>432.4046502181882</v>
+        <v>430.6599274326795</v>
       </c>
       <c r="M39" t="n">
-        <v>623.052916822201</v>
+        <v>621.3081940366924</v>
       </c>
       <c r="N39" t="n">
-        <v>830.4540997456445</v>
+        <v>828.7093769601358</v>
       </c>
       <c r="O39" t="n">
-        <v>1002.132079411653</v>
+        <v>1000.387356626144</v>
       </c>
       <c r="P39" t="n">
-        <v>1124.210677169006</v>
+        <v>1122.465954383498</v>
       </c>
       <c r="Q39" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R39" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S39" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T39" t="n">
-        <v>981.5225941758951</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U39" t="n">
-        <v>883.4549585854348</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="V39" t="n">
-        <v>655.0593360337688</v>
+        <v>936.8620171709479</v>
       </c>
       <c r="W39" t="n">
-        <v>413.7434672670788</v>
+        <v>695.5461484042579</v>
       </c>
       <c r="X39" t="n">
-        <v>215.8264791448734</v>
+        <v>695.5461484042579</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.30515279445227</v>
+        <v>503.0248220538367</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.8105651140554</v>
+        <v>591.9671580803451</v>
       </c>
       <c r="C40" t="n">
-        <v>265.1945955757357</v>
+        <v>591.9671580803451</v>
       </c>
       <c r="D40" t="n">
-        <v>112.1227024034984</v>
+        <v>438.8952649081078</v>
       </c>
       <c r="E40" t="n">
-        <v>112.1227024034984</v>
+        <v>286.8862506694267</v>
       </c>
       <c r="F40" t="n">
-        <v>112.1227024034984</v>
+        <v>286.8862506694267</v>
       </c>
       <c r="G40" t="n">
-        <v>23.30515279445227</v>
+        <v>136.5456748791408</v>
       </c>
       <c r="H40" t="n">
-        <v>23.30515279445227</v>
+        <v>136.5456748791408</v>
       </c>
       <c r="I40" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J40" t="n">
-        <v>23.30515279445227</v>
+        <v>35.7863739512961</v>
       </c>
       <c r="K40" t="n">
-        <v>174.1483322428004</v>
+        <v>186.6295533996443</v>
       </c>
       <c r="L40" t="n">
-        <v>215.676016167717</v>
+        <v>228.1572373245608</v>
       </c>
       <c r="M40" t="n">
-        <v>491.8504247950824</v>
+        <v>504.3316459519262</v>
       </c>
       <c r="N40" t="n">
-        <v>764.6924807347034</v>
+        <v>777.1737018915472</v>
       </c>
       <c r="O40" t="n">
-        <v>1005.787726839877</v>
+        <v>1018.268947996721</v>
       </c>
       <c r="P40" t="n">
         <v>1118.529781827242</v>
       </c>
       <c r="Q40" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R40" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T40" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U40" t="n">
-        <v>1165.257639722613</v>
+        <v>878.123559562946</v>
       </c>
       <c r="V40" t="n">
-        <v>904.522335281036</v>
+        <v>878.123559562946</v>
       </c>
       <c r="W40" t="n">
-        <v>618.3659337984352</v>
+        <v>591.9671580803451</v>
       </c>
       <c r="X40" t="n">
-        <v>618.3659337984352</v>
+        <v>591.9671580803451</v>
       </c>
       <c r="Y40" t="n">
-        <v>618.3659337984352</v>
+        <v>591.9671580803451</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>871.0006599946807</v>
+        <v>616.2989469140438</v>
       </c>
       <c r="C41" t="n">
-        <v>871.0006599946807</v>
+        <v>616.2989469140438</v>
       </c>
       <c r="D41" t="n">
-        <v>696.1471407293507</v>
+        <v>322.0419671861109</v>
       </c>
       <c r="E41" t="n">
-        <v>401.8901610014179</v>
+        <v>322.0419671861109</v>
       </c>
       <c r="F41" t="n">
-        <v>107.6331812734852</v>
+        <v>27.78498745817808</v>
       </c>
       <c r="G41" t="n">
-        <v>107.6331812734852</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="H41" t="n">
-        <v>107.6331812734852</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I41" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J41" t="n">
-        <v>68.60951215485403</v>
+        <v>68.60951215485443</v>
       </c>
       <c r="K41" t="n">
-        <v>177.7340489673139</v>
+        <v>177.7340489673147</v>
       </c>
       <c r="L41" t="n">
-        <v>343.0953678443591</v>
+        <v>343.0953678443602</v>
       </c>
       <c r="M41" t="n">
-        <v>552.8231147334822</v>
+        <v>552.8231147334833</v>
       </c>
       <c r="N41" t="n">
-        <v>769.6931951386816</v>
+        <v>769.6931951386828</v>
       </c>
       <c r="O41" t="n">
-        <v>963.6425625903028</v>
+        <v>963.6425625903037</v>
       </c>
       <c r="P41" t="n">
-        <v>1101.141797335157</v>
+        <v>1101.141797335158</v>
       </c>
       <c r="Q41" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R41" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S41" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T41" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U41" t="n">
-        <v>1165.257639722613</v>
+        <v>910.5559266419766</v>
       </c>
       <c r="V41" t="n">
-        <v>1165.257639722613</v>
+        <v>616.2989469140438</v>
       </c>
       <c r="W41" t="n">
-        <v>1165.257639722613</v>
+        <v>616.2989469140438</v>
       </c>
       <c r="X41" t="n">
-        <v>1165.257639722613</v>
+        <v>616.2989469140438</v>
       </c>
       <c r="Y41" t="n">
-        <v>1165.257639722613</v>
+        <v>616.2989469140438</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>558.0421215140514</v>
+        <v>331.1263760701415</v>
       </c>
       <c r="C42" t="n">
-        <v>558.0421215140514</v>
+        <v>331.1263760701415</v>
       </c>
       <c r="D42" t="n">
-        <v>419.2034845042634</v>
+        <v>331.1263760701415</v>
       </c>
       <c r="E42" t="n">
-        <v>272.1754745611346</v>
+        <v>184.0983661270128</v>
       </c>
       <c r="F42" t="n">
-        <v>137.4816765110089</v>
+        <v>49.40456807688712</v>
       </c>
       <c r="G42" t="n">
-        <v>137.4816765110089</v>
+        <v>49.40456807688712</v>
       </c>
       <c r="H42" t="n">
-        <v>49.4045680768871</v>
+        <v>49.40456807688712</v>
       </c>
       <c r="I42" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J42" t="n">
-        <v>197.2777806941245</v>
+        <v>34.99861821101838</v>
       </c>
       <c r="K42" t="n">
-        <v>280.7645706878059</v>
+        <v>282.509293473315</v>
       </c>
       <c r="L42" t="n">
-        <v>430.6599274326795</v>
+        <v>432.4046502181886</v>
       </c>
       <c r="M42" t="n">
-        <v>621.3081940366924</v>
+        <v>623.0529168222015</v>
       </c>
       <c r="N42" t="n">
-        <v>828.7093769601358</v>
+        <v>830.454099745645</v>
       </c>
       <c r="O42" t="n">
-        <v>1000.387356626144</v>
+        <v>1002.132079411653</v>
       </c>
       <c r="P42" t="n">
-        <v>1122.465954383498</v>
+        <v>1124.210677169007</v>
       </c>
       <c r="Q42" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R42" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S42" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T42" t="n">
-        <v>981.5225941758951</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U42" t="n">
-        <v>915.3785524175177</v>
+        <v>962.8805593094581</v>
       </c>
       <c r="V42" t="n">
-        <v>915.3785524175177</v>
+        <v>962.8805593094581</v>
       </c>
       <c r="W42" t="n">
-        <v>915.3785524175177</v>
+        <v>721.5646905427682</v>
       </c>
       <c r="X42" t="n">
-        <v>717.4615642953122</v>
+        <v>523.6477024205627</v>
       </c>
       <c r="Y42" t="n">
-        <v>717.4615642953122</v>
+        <v>331.1263760701415</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.30515279445227</v>
+        <v>497.410791545676</v>
       </c>
       <c r="C43" t="n">
-        <v>23.30515279445227</v>
+        <v>327.7948220073563</v>
       </c>
       <c r="D43" t="n">
-        <v>23.30515279445227</v>
+        <v>327.7948220073563</v>
       </c>
       <c r="E43" t="n">
-        <v>23.30515279445227</v>
+        <v>175.7858077686752</v>
       </c>
       <c r="F43" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="G43" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="H43" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="I43" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445228</v>
       </c>
       <c r="J43" t="n">
-        <v>23.30515279445227</v>
+        <v>35.7863739512961</v>
       </c>
       <c r="K43" t="n">
-        <v>174.1483322428004</v>
+        <v>186.6295533996443</v>
       </c>
       <c r="L43" t="n">
-        <v>215.676016167717</v>
+        <v>437.2621782085413</v>
       </c>
       <c r="M43" t="n">
-        <v>491.8504247950824</v>
+        <v>713.4365868359067</v>
       </c>
       <c r="N43" t="n">
-        <v>764.6924807347034</v>
+        <v>948.9825606660364</v>
       </c>
       <c r="O43" t="n">
-        <v>1005.787726839877</v>
+        <v>980.2431821583191</v>
       </c>
       <c r="P43" t="n">
-        <v>1118.529781827242</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="Q43" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="R43" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="S43" t="n">
-        <v>1165.257639722613</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="T43" t="n">
-        <v>936.4778357181403</v>
+        <v>1165.257639722614</v>
       </c>
       <c r="U43" t="n">
-        <v>649.3437555584724</v>
+        <v>980.1812547949764</v>
       </c>
       <c r="V43" t="n">
-        <v>649.3437555584724</v>
+        <v>719.445950353399</v>
       </c>
       <c r="W43" t="n">
-        <v>363.1873540758715</v>
+        <v>719.445950353399</v>
       </c>
       <c r="X43" t="n">
-        <v>363.1873540758715</v>
+        <v>719.445950353399</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.1521952681486</v>
+        <v>497.410791545676</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>611.8191122503177</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="C44" t="n">
-        <v>611.8191122503177</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="D44" t="n">
-        <v>611.8191122503177</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="E44" t="n">
-        <v>611.8191122503177</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="F44" t="n">
-        <v>317.562132522385</v>
+        <v>611.8191122503174</v>
       </c>
       <c r="G44" t="n">
-        <v>23.30515279445227</v>
+        <v>317.5621325223848</v>
       </c>
       <c r="H44" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="I44" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="J44" t="n">
-        <v>68.60951215485397</v>
+        <v>68.60951215485386</v>
       </c>
       <c r="K44" t="n">
-        <v>177.7340489673139</v>
+        <v>177.7340489673138</v>
       </c>
       <c r="L44" t="n">
-        <v>343.0953678443592</v>
+        <v>343.095367844359</v>
       </c>
       <c r="M44" t="n">
-        <v>552.8231147334823</v>
+        <v>552.8231147334818</v>
       </c>
       <c r="N44" t="n">
-        <v>769.6931951386816</v>
+        <v>769.6931951386815</v>
       </c>
       <c r="O44" t="n">
-        <v>963.6425625903028</v>
+        <v>963.6425625903023</v>
       </c>
       <c r="P44" t="n">
         <v>1101.141797335157</v>
@@ -7675,25 +7675,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S44" t="n">
-        <v>1030.332586757185</v>
+        <v>1030.332586757184</v>
       </c>
       <c r="T44" t="n">
-        <v>816.0212727569603</v>
+        <v>816.0212727569597</v>
       </c>
       <c r="U44" t="n">
-        <v>816.0212727569603</v>
+        <v>816.0212727569597</v>
       </c>
       <c r="V44" t="n">
-        <v>816.0212727569603</v>
+        <v>816.0212727569597</v>
       </c>
       <c r="W44" t="n">
-        <v>611.8191122503177</v>
+        <v>816.0212727569597</v>
       </c>
       <c r="X44" t="n">
-        <v>611.8191122503177</v>
+        <v>816.0212727569597</v>
       </c>
       <c r="Y44" t="n">
-        <v>611.8191122503177</v>
+        <v>611.8191122503174</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.8826727509875</v>
+        <v>759.1690973613881</v>
       </c>
       <c r="C45" t="n">
-        <v>238.8826727509875</v>
+        <v>597.4654246023429</v>
       </c>
       <c r="D45" t="n">
-        <v>238.8826727509875</v>
+        <v>458.6267875925549</v>
       </c>
       <c r="E45" t="n">
-        <v>238.8826727509875</v>
+        <v>311.5987776494261</v>
       </c>
       <c r="F45" t="n">
-        <v>238.8826727509875</v>
+        <v>176.9049795993005</v>
       </c>
       <c r="G45" t="n">
-        <v>111.3822612285741</v>
+        <v>49.4045680768871</v>
       </c>
       <c r="H45" t="n">
-        <v>23.30515279445227</v>
+        <v>49.4045680768871</v>
       </c>
       <c r="I45" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="J45" t="n">
-        <v>182.885213512716</v>
+        <v>182.8852135127158</v>
       </c>
       <c r="K45" t="n">
-        <v>266.3720035063973</v>
+        <v>266.372003506397</v>
       </c>
       <c r="L45" t="n">
-        <v>416.2673602512709</v>
+        <v>416.2673602512706</v>
       </c>
       <c r="M45" t="n">
-        <v>606.9156268552838</v>
+        <v>606.9156268552834</v>
       </c>
       <c r="N45" t="n">
-        <v>814.3168097787272</v>
+        <v>814.3168097787268</v>
       </c>
       <c r="O45" t="n">
-        <v>985.9947894447357</v>
+        <v>985.9947894447351</v>
       </c>
       <c r="P45" t="n">
-        <v>1108.073387202089</v>
+        <v>1108.073387202088</v>
       </c>
       <c r="Q45" t="n">
         <v>1149.120349755696</v>
@@ -7754,25 +7754,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S45" t="n">
-        <v>1035.269357138727</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="T45" t="n">
-        <v>1035.269357138727</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="U45" t="n">
-        <v>816.8553600300834</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="V45" t="n">
-        <v>588.4597374784173</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="W45" t="n">
-        <v>347.1438687117274</v>
+        <v>1165.257639722613</v>
       </c>
       <c r="X45" t="n">
-        <v>347.1438687117274</v>
+        <v>967.3406516004073</v>
       </c>
       <c r="Y45" t="n">
-        <v>347.1438687117274</v>
+        <v>774.8193252499862</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.3141670331335</v>
+        <v>798.975546675715</v>
       </c>
       <c r="C46" t="n">
-        <v>175.3141670331335</v>
+        <v>798.975546675715</v>
       </c>
       <c r="D46" t="n">
-        <v>175.3141670331335</v>
+        <v>645.9036535034777</v>
       </c>
       <c r="E46" t="n">
-        <v>23.30515279445227</v>
+        <v>493.8946392647966</v>
       </c>
       <c r="F46" t="n">
-        <v>23.30515279445227</v>
+        <v>341.4139842905737</v>
       </c>
       <c r="G46" t="n">
-        <v>23.30515279445227</v>
+        <v>173.5238237643456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="I46" t="n">
-        <v>23.30515279445227</v>
+        <v>23.30515279445225</v>
       </c>
       <c r="J46" t="n">
-        <v>23.30515279445227</v>
+        <v>35.78637395129606</v>
       </c>
       <c r="K46" t="n">
-        <v>36.76910495723261</v>
+        <v>186.6295533996442</v>
       </c>
       <c r="L46" t="n">
-        <v>287.4017297661297</v>
+        <v>437.2621782085412</v>
       </c>
       <c r="M46" t="n">
-        <v>563.5761383934951</v>
+        <v>483.6946532454501</v>
       </c>
       <c r="N46" t="n">
-        <v>836.418194333116</v>
+        <v>692.4200781577731</v>
       </c>
       <c r="O46" t="n">
-        <v>1077.51344043829</v>
+        <v>933.5153242629465</v>
       </c>
       <c r="P46" t="n">
-        <v>1165.257639722613</v>
+        <v>1118.529781827241</v>
       </c>
       <c r="Q46" t="n">
         <v>1165.257639722613</v>
@@ -7833,25 +7833,25 @@
         <v>1165.257639722613</v>
       </c>
       <c r="S46" t="n">
-        <v>1165.257639722613</v>
+        <v>969.4907898449574</v>
       </c>
       <c r="T46" t="n">
-        <v>1009.33995311698</v>
+        <v>969.4907898449574</v>
       </c>
       <c r="U46" t="n">
-        <v>722.2058729573117</v>
+        <v>798.975546675715</v>
       </c>
       <c r="V46" t="n">
-        <v>461.4705685157343</v>
+        <v>798.975546675715</v>
       </c>
       <c r="W46" t="n">
-        <v>175.3141670331335</v>
+        <v>798.975546675715</v>
       </c>
       <c r="X46" t="n">
-        <v>175.3141670331335</v>
+        <v>798.975546675715</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.3141670331335</v>
+        <v>798.975546675715</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>32.42354994280544</v>
+        <v>32.42354994280547</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>165.6806921905199</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6806921905203</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.87787785884102</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.11981962171828</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
         <v>138.7668962480483</v>
@@ -8859,16 +8859,16 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N13" t="n">
-        <v>223.3630318978003</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>185.6902216861923</v>
       </c>
       <c r="P13" t="n">
-        <v>103.2431597344965</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110574</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>149.3803992946443</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>50.63999603471078</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>98.74040325993326</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L16" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>232.0625591822793</v>
+        <v>146.4528382390738</v>
       </c>
       <c r="N16" t="n">
         <v>223.3630318978003</v>
@@ -9102,10 +9102,10 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P16" t="n">
-        <v>64.6484520690469</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.74598943110574</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>149.3803992946441</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.6806921905202</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.87787785884103</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.11981962171829</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
         <v>138.7668962480483</v>
       </c>
       <c r="L19" t="n">
-        <v>149.705961922841</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M19" t="n">
-        <v>232.0625591822793</v>
+        <v>158.5987581328534</v>
       </c>
       <c r="N19" t="n">
-        <v>223.3630318978003</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.74598943110574</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.3803992946439</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.17817075471706</v>
+        <v>44.64022410682934</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>89.89881136504783</v>
       </c>
       <c r="M22" t="n">
         <v>232.0625591822793</v>
@@ -9576,7 +9576,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P22" t="n">
-        <v>89.89881136504776</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.99343733145943</v>
+        <v>23.99343733145895</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9719,7 +9719,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>25.48870513861131</v>
+        <v>25.48870513861119</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
-        <v>42.87787785884105</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>16.42882348304931</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>227.3902135721054</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.99343733145943</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9956,7 +9956,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>281.9482385732904</v>
+        <v>25.48870513861119</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>16.64094062192484</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
-        <v>42.87787785884105</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>256.0515246149282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.77530833229841</v>
+        <v>77.00123322353053</v>
       </c>
       <c r="R29" t="n">
-        <v>32.42354994280549</v>
+        <v>32.42354994280547</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>189.4070510811426</v>
+        <v>189.4070510811427</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
-        <v>42.87787785884105</v>
+        <v>42.87787785884103</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>23.99343733145884</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>77.00123322353056</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>32.42354994280547</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>219.5409105681651</v>
+        <v>9.188412242735183</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>242.9666145695815</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
-        <v>42.87787785884103</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.6806921905202</v>
+        <v>1.762346247988944</v>
       </c>
       <c r="R36" t="n">
         <v>42.87787785884103</v>
@@ -10749,19 +10749,19 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L37" t="n">
-        <v>211.2171120040207</v>
+        <v>102.5061054628703</v>
       </c>
       <c r="M37" t="n">
-        <v>171.2060522306755</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O37" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P37" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>84.9458458910769</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.762346247988603</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.762346247988944</v>
       </c>
       <c r="R39" t="n">
         <v>42.87787785884103</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.11981962171829</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>138.7668962480483</v>
@@ -10998,7 +10998,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P40" t="n">
-        <v>102.50610546287</v>
+        <v>89.89881136504823</v>
       </c>
       <c r="Q40" t="n">
         <v>84.9458458910769</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>165.6806921905205</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.762346247988489</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>42.87787785884103</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.11981962171829</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>138.7668962480483</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
         <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
-        <v>223.3630318978003</v>
+        <v>185.690221686193</v>
       </c>
       <c r="O43" t="n">
-        <v>211.9541662756472</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5061054628699</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>37.74598943110574</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.42354994280547</v>
+        <v>32.42354994280549</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>149.380399294644</v>
+        <v>149.3803992946438</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.11981962171829</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
         <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>223.3630318978003</v>
+        <v>158.5987581328529</v>
       </c>
       <c r="O46" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>77.25574616686865</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.74598943110574</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.78869419218546</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>86.8000111498672</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>112.5059928581292</v>
+        <v>77.78131519439535</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>153.4199465160121</v>
       </c>
       <c r="G11" t="n">
-        <v>409.6706095139172</v>
+        <v>118.3561995832639</v>
       </c>
       <c r="H11" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I11" t="n">
-        <v>83.48474819424256</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>252.154695949831</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>42.29507143236475</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.29202693926686</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -23357,7 +23357,7 @@
         <v>87.19633734978058</v>
       </c>
       <c r="I12" t="n">
-        <v>25.83842112961047</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>181.8976950912513</v>
       </c>
       <c r="U12" t="n">
-        <v>116.1155831129079</v>
+        <v>95.07045116519892</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>45.49350475104902</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>230.1969455177731</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>86.80001114986726</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>77.78131519439523</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>153.4199465160119</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>409.6706095139172</v>
+        <v>168.3507566315186</v>
       </c>
       <c r="H14" t="n">
-        <v>14.90707872224094</v>
+        <v>306.2214886528944</v>
       </c>
       <c r="I14" t="n">
         <v>83.48474819424257</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.1682008602224</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>42.29507143236469</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23579,22 +23579,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>116.2086104150379</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V15" t="n">
-        <v>11.87101229598036</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,22 +23658,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>45.49350475104924</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T16" t="n">
         <v>226.4920059644283</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2627393580713</v>
+        <v>75.63367986822124</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -23737,7 +23737,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>112.5059928581293</v>
       </c>
       <c r="E17" t="n">
         <v>99.52345276430083</v>
@@ -23749,7 +23749,7 @@
         <v>118.3561995832638</v>
       </c>
       <c r="H17" t="n">
-        <v>49.63175638597505</v>
+        <v>306.2214886528944</v>
       </c>
       <c r="I17" t="n">
         <v>83.48474819424257</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>20.4415422921019</v>
       </c>
       <c r="G18" t="n">
         <v>126.2254074071893</v>
@@ -23831,7 +23831,7 @@
         <v>87.19633734978058</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>83.07360570374286</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -23940,10 +23940,10 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>73.18574636907147</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>115.4537535074356</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>267.0891742916938</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>112.5059928581294</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>99.52345276430088</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>118.695268852278</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.1682008602224</v>
@@ -24037,7 +24037,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>98.29202693926703</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>95.07045116519885</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -24104,10 +24104,10 @@
         <v>181.8976950912513</v>
       </c>
       <c r="U21" t="n">
-        <v>8.670423156746153</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>141.2040108279029</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4443364749631</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.2627393580713</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23.82477464684018</v>
+        <v>60.1164028853554</v>
       </c>
       <c r="C23" t="n">
-        <v>34.96214229805895</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>24.55953321895538</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>43.39228003791847</v>
+        <v>43.3922800379184</v>
       </c>
       <c r="H23" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I23" t="n">
-        <v>83.4847481942426</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.5758024357742</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U23" t="n">
         <v>252.154695949831</v>
@@ -24268,7 +24268,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.93172036219364</v>
+        <v>112.2735746920626</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>87.19633734978059</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24344,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24378,13 +24378,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.7164842601944</v>
+        <v>113.5721461810768</v>
       </c>
       <c r="I25" t="n">
-        <v>112.1081168638417</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>193.8091813788789</v>
       </c>
       <c r="T25" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>96.04018155960122</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23.82477464684018</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>2.817395649049843</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>24.55953321895538</v>
       </c>
       <c r="F26" t="n">
-        <v>43.7313493069326</v>
+        <v>306.8775740173219</v>
       </c>
       <c r="G26" t="n">
-        <v>43.39228003791845</v>
+        <v>409.6706095139172</v>
       </c>
       <c r="H26" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>133.5758024357742</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.1682008602224</v>
       </c>
       <c r="U26" t="n">
-        <v>225.1896924018364</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>126.2254074071893</v>
       </c>
       <c r="H27" t="n">
-        <v>87.19633734978059</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.14797609249066</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>128.6883997580476</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>187.4745786955211</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.7164842601944</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.1954786247584</v>
       </c>
       <c r="S28" t="n">
         <v>193.8091813788789</v>
       </c>
       <c r="T28" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.2389060813539</v>
+        <v>79.47933984020369</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>2.817395649049843</v>
       </c>
       <c r="E29" t="n">
-        <v>24.55953321895549</v>
+        <v>47.68558391249229</v>
       </c>
       <c r="F29" t="n">
-        <v>54.72287806749131</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>409.6706095139172</v>
+        <v>43.3922800379184</v>
       </c>
       <c r="H29" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I29" t="n">
-        <v>83.4847481942426</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.5758024357742</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.1682008602225</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>252.154695949831</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>11.93150959772288</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>63.21497698362973</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.19633734978059</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I30" t="n">
-        <v>25.8384211296105</v>
+        <v>25.83842112961049</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T30" t="n">
-        <v>181.8976950912513</v>
+        <v>100.2356239903247</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.017671995187507</v>
+        <v>166.2112589209658</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.1081168638416</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.4920059644283</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.2627393580713</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>208.3182535719695</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24925,13 +24925,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>60.85116145747065</v>
+        <v>24.55953321895538</v>
       </c>
       <c r="F32" t="n">
-        <v>43.73134930693254</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>43.3922800379184</v>
+        <v>87.05265691145746</v>
       </c>
       <c r="H32" t="n">
         <v>306.2214886528944</v>
@@ -24979,13 +24979,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>11.93150959772277</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>23.32810739392153</v>
       </c>
     </row>
     <row r="33">
@@ -24998,10 +24998,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.19633734978058</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>25.83842112961049</v>
@@ -25049,22 +25049,22 @@
         <v>128.6883997580476</v>
       </c>
       <c r="T33" t="n">
-        <v>7.470817733799475</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2298571375572</v>
+        <v>105.8806937769969</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="34">
@@ -25083,19 +25083,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S34" t="n">
-        <v>193.8091813788789</v>
+        <v>118.7637212093804</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.47933984020369</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>227.9294603108713</v>
+        <v>187.9429652212626</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25165,10 +25165,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>118.695268852278</v>
+        <v>118.6952688522779</v>
       </c>
       <c r="G35" t="n">
-        <v>118.3561995832638</v>
+        <v>118.3561995832637</v>
       </c>
       <c r="H35" t="n">
         <v>306.2214886528944</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.1682008602224</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.154695949831</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25253,7 +25253,7 @@
         <v>87.19633734978058</v>
       </c>
       <c r="I36" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T36" t="n">
-        <v>40.54526513552358</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U36" t="n">
         <v>216.2298571375572</v>
@@ -25298,10 +25298,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>142.3315227437349</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>112.1081168638416</v>
@@ -25362,22 +25362,22 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S37" t="n">
-        <v>75.21176372348638</v>
+        <v>193.8091813788789</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>48.91052637192888</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2627393580713</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25396,16 +25396,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>77.78131519439529</v>
+        <v>77.78131519439518</v>
       </c>
       <c r="E38" t="n">
-        <v>99.52345276430083</v>
+        <v>99.52345276430071</v>
       </c>
       <c r="F38" t="n">
-        <v>153.419946516012</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>118.3561995832638</v>
+        <v>118.3561995832637</v>
       </c>
       <c r="H38" t="n">
         <v>306.2214886528944</v>
@@ -25456,7 +25456,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>121.6201068068021</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25475,19 +25475,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.2254074071893</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.19633734978058</v>
+        <v>21.5072526735668</v>
       </c>
       <c r="I39" t="n">
         <v>25.83842112961049</v>
@@ -25523,10 +25523,10 @@
         <v>128.6883997580476</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U39" t="n">
-        <v>119.1428979030016</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>78.28188480801016</v>
+        <v>17.37408888858283</v>
       </c>
       <c r="H40" t="n">
         <v>148.7164842601944</v>
       </c>
       <c r="I40" t="n">
-        <v>112.1081168638416</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>226.4920059644283</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2627393580713</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.78869419218557</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>195.9907410523719</v>
+        <v>77.78131519439518</v>
       </c>
       <c r="E41" t="n">
-        <v>99.52345276430083</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>118.695268852278</v>
+        <v>118.6952688522779</v>
       </c>
       <c r="G41" t="n">
-        <v>409.6706095139172</v>
+        <v>405.2355731968287</v>
       </c>
       <c r="H41" t="n">
         <v>306.2214886528944</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>83.48474819424257</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>212.1682008602224</v>
       </c>
       <c r="U41" t="n">
-        <v>252.154695949831</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>42.29507143236458</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>126.2254074071893</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.19633734978058</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>128.6883997580476</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.8976950912513</v>
       </c>
       <c r="U42" t="n">
-        <v>150.7472557967636</v>
+        <v>15.87654752853297</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.05124294857669</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.2112589209658</v>
@@ -25839,16 +25839,16 @@
         <v>193.8091813788789</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>101.0371182797102</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25876,16 +25876,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>118.695268852278</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>118.3561995832638</v>
+        <v>118.356199583264</v>
       </c>
       <c r="H44" t="n">
-        <v>306.2214886528944</v>
+        <v>14.90707872224118</v>
       </c>
       <c r="I44" t="n">
-        <v>83.48474819424257</v>
+        <v>83.4847481942426</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>156.7494419393988</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>187.4462979683445</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.6466643523158</v>
+        <v>142.3315227437362</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.19633734978059</v>
       </c>
       <c r="I45" t="n">
-        <v>25.83842112961049</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>128.6883997580476</v>
       </c>
       <c r="T45" t="n">
         <v>181.8976950912513</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.2298571375572</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,22 +26028,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2112589209658</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.7164842601944</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.1081168638416</v>
+        <v>112.1081168638417</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>102.1954786247584</v>
       </c>
       <c r="S46" t="n">
-        <v>193.8091813788789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.133496224851</v>
+        <v>226.4920059644283</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>115.4526486205214</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448168.1970964278</v>
+        <v>448168.1970964277</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448168.197096428</v>
+        <v>448168.1970964278</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448168.1970964278</v>
+        <v>448168.1970964277</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448168.1970964278</v>
+        <v>448168.1970964277</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512181.5127293587</v>
+        <v>512181.5127293586</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512181.5127293586</v>
+        <v>512181.5127293587</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512181.5127293589</v>
+        <v>512181.5127293587</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448168.1970964279</v>
+        <v>448168.1970964278</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448168.1970964278</v>
+        <v>448168.197096428</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448168.1970964277</v>
+        <v>448168.1970964276</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>459525.9789043826</v>
       </c>
       <c r="E2" t="n">
-        <v>227147.9411139292</v>
+        <v>227147.9411139291</v>
       </c>
       <c r="F2" t="n">
-        <v>227147.9411139292</v>
+        <v>227147.9411139293</v>
       </c>
       <c r="G2" t="n">
         <v>227147.9411139293</v>
       </c>
       <c r="H2" t="n">
-        <v>227147.9411139292</v>
+        <v>227147.9411139291</v>
       </c>
       <c r="I2" t="n">
         <v>252632.5312718392</v>
@@ -26340,10 +26340,10 @@
         <v>252632.5312718392</v>
       </c>
       <c r="K2" t="n">
-        <v>252632.5312718392</v>
+        <v>252632.5312718393</v>
       </c>
       <c r="L2" t="n">
-        <v>252632.5312718393</v>
+        <v>252632.5312718394</v>
       </c>
       <c r="M2" t="n">
         <v>227147.9411139293</v>
@@ -26352,7 +26352,7 @@
         <v>227147.9411139292</v>
       </c>
       <c r="O2" t="n">
-        <v>227147.9411139291</v>
+        <v>227147.9411139293</v>
       </c>
       <c r="P2" t="n">
         <v>227147.9411139291</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541098.6948992944</v>
+        <v>541098.6948992943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19934.48044941781</v>
+        <v>19934.48044941783</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>397070.1574037161</v>
       </c>
       <c r="E4" t="n">
-        <v>13053.92369335372</v>
+        <v>13053.92369335371</v>
       </c>
       <c r="F4" t="n">
-        <v>13053.92369335372</v>
+        <v>13053.92369335371</v>
       </c>
       <c r="G4" t="n">
-        <v>13053.92369335372</v>
+        <v>13053.92369335371</v>
       </c>
       <c r="H4" t="n">
         <v>13053.92369335371</v>
       </c>
       <c r="I4" t="n">
-        <v>28286.77993337245</v>
+        <v>28286.77993337243</v>
       </c>
       <c r="J4" t="n">
-        <v>28286.77993337245</v>
+        <v>28286.77993337243</v>
       </c>
       <c r="K4" t="n">
         <v>28286.77993337243</v>
@@ -26450,13 +26450,13 @@
         <v>28286.77993337243</v>
       </c>
       <c r="M4" t="n">
-        <v>13053.92369335371</v>
+        <v>13053.92369335372</v>
       </c>
       <c r="N4" t="n">
-        <v>13053.92369335371</v>
+        <v>13053.92369335372</v>
       </c>
       <c r="O4" t="n">
-        <v>13053.92369335371</v>
+        <v>13053.92369335372</v>
       </c>
       <c r="P4" t="n">
         <v>13053.92369335371</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30034.23249307814</v>
+        <v>30034.23249307812</v>
       </c>
       <c r="F5" t="n">
         <v>30034.23249307813</v>
@@ -26490,13 +26490,13 @@
         <v>30034.23249307812</v>
       </c>
       <c r="I5" t="n">
-        <v>34592.03880143512</v>
+        <v>34592.03880143513</v>
       </c>
       <c r="J5" t="n">
-        <v>34592.03880143512</v>
+        <v>34592.03880143513</v>
       </c>
       <c r="K5" t="n">
-        <v>34592.03880143512</v>
+        <v>34592.03880143513</v>
       </c>
       <c r="L5" t="n">
         <v>34592.03880143513</v>
@@ -26511,7 +26511,7 @@
         <v>30034.23249307813</v>
       </c>
       <c r="P5" t="n">
-        <v>30034.23249307813</v>
+        <v>30034.23249307811</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28828.22150066652</v>
+        <v>28784.53577599456</v>
       </c>
       <c r="C6" t="n">
-        <v>28828.22150066652</v>
+        <v>28784.53577599462</v>
       </c>
       <c r="D6" t="n">
-        <v>28828.22150066646</v>
+        <v>28784.53577599456</v>
       </c>
       <c r="E6" t="n">
-        <v>-357038.909971797</v>
+        <v>-366765.0139377379</v>
       </c>
       <c r="F6" t="n">
-        <v>184059.7849274974</v>
+        <v>174333.6809615566</v>
       </c>
       <c r="G6" t="n">
-        <v>184059.7849274975</v>
+        <v>174333.6809615566</v>
       </c>
       <c r="H6" t="n">
-        <v>184059.7849274973</v>
+        <v>174333.6809615565</v>
       </c>
       <c r="I6" t="n">
-        <v>169819.2320876138</v>
+        <v>161154.9860449193</v>
       </c>
       <c r="J6" t="n">
-        <v>189753.7125370316</v>
+        <v>181089.4664943371</v>
       </c>
       <c r="K6" t="n">
-        <v>189753.7125370317</v>
+        <v>181089.4664943372</v>
       </c>
       <c r="L6" t="n">
-        <v>189753.7125370318</v>
+        <v>181089.4664943373</v>
       </c>
       <c r="M6" t="n">
-        <v>130144.3773215172</v>
+        <v>120418.2733555764</v>
       </c>
       <c r="N6" t="n">
-        <v>184059.7849274974</v>
+        <v>174333.6809615566</v>
       </c>
       <c r="O6" t="n">
-        <v>184059.7849274973</v>
+        <v>174333.6809615566</v>
       </c>
       <c r="P6" t="n">
-        <v>184059.7849274973</v>
+        <v>174333.6809615565</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>565.2438701511194</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="F3" t="n">
         <v>565.2438701511193</v>
@@ -26758,13 +26758,13 @@
         <v>565.2438701511193</v>
       </c>
       <c r="I3" t="n">
-        <v>565.2438701511192</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="J3" t="n">
-        <v>565.2438701511192</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="K3" t="n">
-        <v>565.2438701511192</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="L3" t="n">
         <v>565.2438701511193</v>
@@ -26779,7 +26779,7 @@
         <v>565.2438701511193</v>
       </c>
       <c r="P3" t="n">
-        <v>565.2438701511193</v>
+        <v>565.2438701511192</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3144099306535</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="F4" t="n">
         <v>291.3144099306534</v>
@@ -26816,22 +26816,22 @@
         <v>366.2783294759988</v>
       </c>
       <c r="K4" t="n">
-        <v>366.2783294759987</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="L4" t="n">
         <v>366.2783294759988</v>
       </c>
       <c r="M4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="N4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="O4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306535</v>
       </c>
       <c r="P4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306532</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>565.2438701511194</v>
+        <v>565.2438701511193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>74.96391954534545</v>
+        <v>74.96391954534553</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>291.3144099306534</v>
+        <v>291.3144099306533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>23.27157300576944</v>
       </c>
       <c r="I11" t="n">
-        <v>87.60427860904939</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J11" t="n">
-        <v>192.8617765798536</v>
+        <v>192.8617765798535</v>
       </c>
       <c r="K11" t="n">
-        <v>289.0498088351174</v>
+        <v>289.0498088351173</v>
       </c>
       <c r="L11" t="n">
-        <v>358.5918473924534</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M11" t="n">
-        <v>399.0025234760713</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N11" t="n">
-        <v>405.4588014502095</v>
+        <v>405.4588014502094</v>
       </c>
       <c r="O11" t="n">
         <v>382.8632487514549</v>
       </c>
       <c r="P11" t="n">
-        <v>326.7649249550499</v>
+        <v>326.7649249550498</v>
       </c>
       <c r="Q11" t="n">
         <v>245.3868501820369</v>
@@ -31788,10 +31788,10 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S11" t="n">
-        <v>51.78088318017542</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T11" t="n">
-        <v>9.94715594607648</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U11" t="n">
         <v>0.1817869733149327</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.215807569759012</v>
+        <v>1.215807569759011</v>
       </c>
       <c r="H12" t="n">
         <v>11.74214152898835</v>
       </c>
       <c r="I12" t="n">
-        <v>41.86004132722913</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J12" t="n">
-        <v>114.8671528955214</v>
+        <v>114.8671528955213</v>
       </c>
       <c r="K12" t="n">
         <v>196.3262600693751</v>
@@ -31864,16 +31864,16 @@
         <v>155.1967697818696</v>
       </c>
       <c r="R12" t="n">
-        <v>75.48671911187971</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S12" t="n">
-        <v>22.58309235933952</v>
+        <v>22.58309235933951</v>
       </c>
       <c r="T12" t="n">
-        <v>4.900557704423383</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07998734011572448</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,19 +31913,19 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H13" t="n">
-        <v>9.062434508324509</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I13" t="n">
         <v>30.65289708950661</v>
       </c>
       <c r="J13" t="n">
-        <v>72.06396029779106</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K13" t="n">
         <v>118.4232239431361</v>
       </c>
       <c r="L13" t="n">
-        <v>151.5409549582198</v>
+        <v>151.5409549582197</v>
       </c>
       <c r="M13" t="n">
         <v>159.7786893937008</v>
@@ -31937,22 +31937,22 @@
         <v>144.0723228378624</v>
       </c>
       <c r="P13" t="n">
-        <v>123.2787614506638</v>
+        <v>123.2787614506637</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.35182439281903</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R13" t="n">
-        <v>45.83108494700714</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S13" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T13" t="n">
-        <v>4.355157688049607</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05559775771978229</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.272337166436658</v>
+        <v>2.272337166436659</v>
       </c>
       <c r="H23" t="n">
-        <v>23.27157300576943</v>
+        <v>23.27157300576944</v>
       </c>
       <c r="I23" t="n">
-        <v>87.60427860904935</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J23" t="n">
         <v>192.8617765798535</v>
@@ -32715,16 +32715,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L23" t="n">
-        <v>358.5918473924532</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M23" t="n">
-        <v>399.0025234760711</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N23" t="n">
         <v>405.4588014502094</v>
       </c>
       <c r="O23" t="n">
-        <v>382.8632487514548</v>
+        <v>382.8632487514549</v>
       </c>
       <c r="P23" t="n">
         <v>326.7649249550498</v>
@@ -32736,13 +32736,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S23" t="n">
-        <v>51.7808831801754</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T23" t="n">
-        <v>9.947155946076476</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1817869733149326</v>
+        <v>0.1817869733149327</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H24" t="n">
-        <v>11.74214152898834</v>
+        <v>11.74214152898835</v>
       </c>
       <c r="I24" t="n">
-        <v>41.86004132722911</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J24" t="n">
         <v>114.8671528955213</v>
@@ -32794,34 +32794,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L24" t="n">
-        <v>263.9848848285958</v>
+        <v>263.9848848285959</v>
       </c>
       <c r="M24" t="n">
-        <v>308.0579092323599</v>
+        <v>308.05790923236</v>
       </c>
       <c r="N24" t="n">
-        <v>316.2112854348228</v>
+        <v>316.2112854348229</v>
       </c>
       <c r="O24" t="n">
-        <v>289.2715492838468</v>
+        <v>289.2715492838469</v>
       </c>
       <c r="P24" t="n">
-        <v>232.1659209305606</v>
+        <v>232.1659209305607</v>
       </c>
       <c r="Q24" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R24" t="n">
-        <v>75.48671911187968</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S24" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T24" t="n">
-        <v>4.90055770442338</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07998734011572445</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H25" t="n">
-        <v>9.062434508324506</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I25" t="n">
-        <v>30.6528970895066</v>
+        <v>30.65289708950661</v>
       </c>
       <c r="J25" t="n">
-        <v>72.06396029779103</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K25" t="n">
         <v>118.4232239431361</v>
@@ -32876,31 +32876,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M25" t="n">
-        <v>159.7786893937007</v>
+        <v>159.7786893937008</v>
       </c>
       <c r="N25" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O25" t="n">
-        <v>144.0723228378623</v>
+        <v>144.0723228378624</v>
       </c>
       <c r="P25" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.35182439281898</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R25" t="n">
-        <v>45.83108494700712</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S25" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T25" t="n">
-        <v>4.355157688049605</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05559775771978227</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.272337166436658</v>
+        <v>2.272337166436659</v>
       </c>
       <c r="H26" t="n">
-        <v>23.27157300576943</v>
+        <v>23.27157300576944</v>
       </c>
       <c r="I26" t="n">
-        <v>87.60427860904935</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J26" t="n">
         <v>192.8617765798535</v>
@@ -32952,16 +32952,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L26" t="n">
-        <v>358.5918473924532</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M26" t="n">
-        <v>399.0025234760711</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N26" t="n">
         <v>405.4588014502094</v>
       </c>
       <c r="O26" t="n">
-        <v>382.8632487514548</v>
+        <v>382.8632487514549</v>
       </c>
       <c r="P26" t="n">
         <v>326.7649249550498</v>
@@ -32973,13 +32973,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S26" t="n">
-        <v>51.7808831801754</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T26" t="n">
-        <v>9.947155946076476</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1817869733149326</v>
+        <v>0.1817869733149327</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H27" t="n">
-        <v>11.74214152898834</v>
+        <v>11.74214152898835</v>
       </c>
       <c r="I27" t="n">
-        <v>41.86004132722911</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J27" t="n">
         <v>114.8671528955213</v>
@@ -33031,34 +33031,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L27" t="n">
-        <v>263.9848848285958</v>
+        <v>263.9848848285959</v>
       </c>
       <c r="M27" t="n">
-        <v>308.0579092323599</v>
+        <v>308.05790923236</v>
       </c>
       <c r="N27" t="n">
-        <v>316.2112854348228</v>
+        <v>316.2112854348229</v>
       </c>
       <c r="O27" t="n">
-        <v>289.2715492838468</v>
+        <v>289.2715492838469</v>
       </c>
       <c r="P27" t="n">
-        <v>232.1659209305606</v>
+        <v>232.1659209305607</v>
       </c>
       <c r="Q27" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R27" t="n">
-        <v>75.48671911187968</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S27" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T27" t="n">
-        <v>4.90055770442338</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07998734011572445</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,13 +33098,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H28" t="n">
-        <v>9.062434508324506</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I28" t="n">
-        <v>30.6528970895066</v>
+        <v>30.65289708950661</v>
       </c>
       <c r="J28" t="n">
-        <v>72.06396029779103</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K28" t="n">
         <v>118.4232239431361</v>
@@ -33113,31 +33113,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M28" t="n">
-        <v>159.7786893937007</v>
+        <v>159.7786893937008</v>
       </c>
       <c r="N28" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O28" t="n">
-        <v>144.0723228378623</v>
+        <v>144.0723228378624</v>
       </c>
       <c r="P28" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.35182439281898</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R28" t="n">
-        <v>45.83108494700712</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S28" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T28" t="n">
-        <v>4.355157688049605</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05559775771978227</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.272337166436658</v>
+        <v>2.272337166436659</v>
       </c>
       <c r="H29" t="n">
-        <v>23.27157300576943</v>
+        <v>23.27157300576944</v>
       </c>
       <c r="I29" t="n">
-        <v>87.60427860904935</v>
+        <v>87.60427860904937</v>
       </c>
       <c r="J29" t="n">
         <v>192.8617765798535</v>
@@ -33189,16 +33189,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L29" t="n">
-        <v>358.5918473924532</v>
+        <v>358.5918473924533</v>
       </c>
       <c r="M29" t="n">
-        <v>399.0025234760711</v>
+        <v>399.0025234760712</v>
       </c>
       <c r="N29" t="n">
         <v>405.4588014502094</v>
       </c>
       <c r="O29" t="n">
-        <v>382.8632487514548</v>
+        <v>382.8632487514549</v>
       </c>
       <c r="P29" t="n">
         <v>326.7649249550498</v>
@@ -33210,13 +33210,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7808831801754</v>
+        <v>51.78088318017541</v>
       </c>
       <c r="T29" t="n">
-        <v>9.947155946076476</v>
+        <v>9.947155946076478</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1817869733149326</v>
+        <v>0.1817869733149327</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H30" t="n">
-        <v>11.74214152898834</v>
+        <v>11.74214152898835</v>
       </c>
       <c r="I30" t="n">
-        <v>41.86004132722911</v>
+        <v>41.86004132722912</v>
       </c>
       <c r="J30" t="n">
         <v>114.8671528955213</v>
@@ -33268,34 +33268,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L30" t="n">
-        <v>263.9848848285958</v>
+        <v>263.9848848285959</v>
       </c>
       <c r="M30" t="n">
-        <v>308.0579092323599</v>
+        <v>308.05790923236</v>
       </c>
       <c r="N30" t="n">
-        <v>316.2112854348228</v>
+        <v>316.2112854348229</v>
       </c>
       <c r="O30" t="n">
-        <v>289.2715492838468</v>
+        <v>289.2715492838469</v>
       </c>
       <c r="P30" t="n">
-        <v>232.1659209305606</v>
+        <v>232.1659209305607</v>
       </c>
       <c r="Q30" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R30" t="n">
-        <v>75.48671911187968</v>
+        <v>75.48671911187969</v>
       </c>
       <c r="S30" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T30" t="n">
-        <v>4.90055770442338</v>
+        <v>4.900557704423381</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07998734011572445</v>
+        <v>0.07998734011572446</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H31" t="n">
-        <v>9.062434508324506</v>
+        <v>9.062434508324507</v>
       </c>
       <c r="I31" t="n">
-        <v>30.6528970895066</v>
+        <v>30.65289708950661</v>
       </c>
       <c r="J31" t="n">
-        <v>72.06396029779103</v>
+        <v>72.06396029779104</v>
       </c>
       <c r="K31" t="n">
         <v>118.4232239431361</v>
@@ -33350,31 +33350,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M31" t="n">
-        <v>159.7786893937007</v>
+        <v>159.7786893937008</v>
       </c>
       <c r="N31" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O31" t="n">
-        <v>144.0723228378623</v>
+        <v>144.0723228378624</v>
       </c>
       <c r="P31" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.35182439281898</v>
+        <v>85.35182439281901</v>
       </c>
       <c r="R31" t="n">
-        <v>45.83108494700712</v>
+        <v>45.83108494700713</v>
       </c>
       <c r="S31" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T31" t="n">
-        <v>4.355157688049605</v>
+        <v>4.355157688049606</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05559775771978227</v>
+        <v>0.05559775771978228</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.272337166436659</v>
+        <v>2.272337166436658</v>
       </c>
       <c r="H44" t="n">
-        <v>23.27157300576944</v>
+        <v>23.27157300576943</v>
       </c>
       <c r="I44" t="n">
-        <v>87.60427860904937</v>
+        <v>87.60427860904935</v>
       </c>
       <c r="J44" t="n">
         <v>192.8617765798535</v>
@@ -34374,16 +34374,16 @@
         <v>289.0498088351173</v>
       </c>
       <c r="L44" t="n">
-        <v>358.5918473924533</v>
+        <v>358.5918473924532</v>
       </c>
       <c r="M44" t="n">
-        <v>399.0025234760712</v>
+        <v>399.0025234760711</v>
       </c>
       <c r="N44" t="n">
-        <v>405.4588014502093</v>
+        <v>405.4588014502094</v>
       </c>
       <c r="O44" t="n">
-        <v>382.8632487514549</v>
+        <v>382.8632487514548</v>
       </c>
       <c r="P44" t="n">
         <v>326.7649249550498</v>
@@ -34395,13 +34395,13 @@
         <v>142.7396995311769</v>
       </c>
       <c r="S44" t="n">
-        <v>51.78088318017541</v>
+        <v>51.7808831801754</v>
       </c>
       <c r="T44" t="n">
-        <v>9.947155946076478</v>
+        <v>9.947155946076476</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1817869733149327</v>
+        <v>0.1817869733149326</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.215807569759011</v>
       </c>
       <c r="H45" t="n">
-        <v>11.74214152898835</v>
+        <v>11.74214152898834</v>
       </c>
       <c r="I45" t="n">
-        <v>41.86004132722912</v>
+        <v>41.86004132722911</v>
       </c>
       <c r="J45" t="n">
         <v>114.8671528955213</v>
@@ -34453,34 +34453,34 @@
         <v>196.3262600693751</v>
       </c>
       <c r="L45" t="n">
-        <v>263.9848848285959</v>
+        <v>263.9848848285958</v>
       </c>
       <c r="M45" t="n">
-        <v>308.05790923236</v>
+        <v>308.0579092323599</v>
       </c>
       <c r="N45" t="n">
-        <v>316.2112854348229</v>
+        <v>316.2112854348228</v>
       </c>
       <c r="O45" t="n">
-        <v>289.2715492838469</v>
+        <v>289.2715492838468</v>
       </c>
       <c r="P45" t="n">
-        <v>232.1659209305607</v>
+        <v>232.1659209305606</v>
       </c>
       <c r="Q45" t="n">
         <v>155.1967697818696</v>
       </c>
       <c r="R45" t="n">
-        <v>75.48671911187969</v>
+        <v>75.48671911187968</v>
       </c>
       <c r="S45" t="n">
         <v>22.58309235933951</v>
       </c>
       <c r="T45" t="n">
-        <v>4.900557704423381</v>
+        <v>4.90055770442338</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07998734011572446</v>
+        <v>0.07998734011572445</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,13 +34520,13 @@
         <v>1.019292224862674</v>
       </c>
       <c r="H46" t="n">
-        <v>9.062434508324507</v>
+        <v>9.062434508324506</v>
       </c>
       <c r="I46" t="n">
-        <v>30.65289708950661</v>
+        <v>30.6528970895066</v>
       </c>
       <c r="J46" t="n">
-        <v>72.06396029779104</v>
+        <v>72.06396029779103</v>
       </c>
       <c r="K46" t="n">
         <v>118.4232239431361</v>
@@ -34535,31 +34535,31 @@
         <v>151.5409549582197</v>
       </c>
       <c r="M46" t="n">
-        <v>159.7786893937008</v>
+        <v>159.7786893937007</v>
       </c>
       <c r="N46" t="n">
         <v>155.9795092828491</v>
       </c>
       <c r="O46" t="n">
-        <v>144.0723228378624</v>
+        <v>144.0723228378623</v>
       </c>
       <c r="P46" t="n">
         <v>123.2787614506637</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.35182439281901</v>
+        <v>85.35182439281898</v>
       </c>
       <c r="R46" t="n">
-        <v>45.83108494700713</v>
+        <v>45.83108494700712</v>
       </c>
       <c r="S46" t="n">
         <v>17.76348359147041</v>
       </c>
       <c r="T46" t="n">
-        <v>4.355157688049606</v>
+        <v>4.355157688049605</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05559775771978228</v>
+        <v>0.05559775771978227</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.76197915192094</v>
+        <v>45.76197915192091</v>
       </c>
       <c r="K11" t="n">
-        <v>110.2268048610707</v>
+        <v>110.2268048610706</v>
       </c>
       <c r="L11" t="n">
-        <v>167.0316352293388</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M11" t="n">
         <v>211.8462089789122</v>
       </c>
       <c r="N11" t="n">
-        <v>219.0606872779794</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O11" t="n">
-        <v>195.9084519713345</v>
+        <v>195.9084519713344</v>
       </c>
       <c r="P11" t="n">
-        <v>138.8881159038934</v>
+        <v>138.8881159038933</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.76347715904672</v>
+        <v>64.76347715904666</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.81158122885468</v>
+        <v>11.81158122885465</v>
       </c>
       <c r="K12" t="n">
-        <v>84.33009090270846</v>
+        <v>250.0107830932283</v>
       </c>
       <c r="L12" t="n">
         <v>151.4094512574481</v>
@@ -35500,7 +35500,7 @@
         <v>192.5740066707201</v>
       </c>
       <c r="N12" t="n">
-        <v>209.4961443671146</v>
+        <v>209.4961443671145</v>
       </c>
       <c r="O12" t="n">
         <v>173.4121006727358</v>
@@ -35509,7 +35509,7 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q12" t="n">
-        <v>207.1422705274974</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K13" t="n">
         <v>152.3668479276244</v>
@@ -35579,16 +35579,16 @@
         <v>278.964049118551</v>
       </c>
       <c r="N13" t="n">
-        <v>275.5980363026475</v>
+        <v>52.23500440484715</v>
       </c>
       <c r="O13" t="n">
-        <v>31.57638534574014</v>
+        <v>217.2666070319324</v>
       </c>
       <c r="P13" t="n">
-        <v>114.6179178952279</v>
+        <v>186.8832904689847</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.19985645997117</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>161.191980523499</v>
+        <v>11.81158122885465</v>
       </c>
       <c r="K15" t="n">
-        <v>84.33009090270841</v>
+        <v>134.9700869374192</v>
       </c>
       <c r="L15" t="n">
         <v>151.4094512574481</v>
       </c>
       <c r="M15" t="n">
-        <v>192.5740066707201</v>
+        <v>291.3144099306534</v>
       </c>
       <c r="N15" t="n">
         <v>209.4961443671145</v>
@@ -35807,13 +35807,13 @@
         <v>12.60729409782204</v>
       </c>
       <c r="K16" t="n">
-        <v>13.59995167957611</v>
+        <v>152.3668479276244</v>
       </c>
       <c r="L16" t="n">
-        <v>253.1642674837344</v>
+        <v>41.94715547971364</v>
       </c>
       <c r="M16" t="n">
-        <v>278.964049118551</v>
+        <v>193.3543281753455</v>
       </c>
       <c r="N16" t="n">
         <v>275.5980363026475</v>
@@ -35822,10 +35822,10 @@
         <v>243.5305516213873</v>
       </c>
       <c r="P16" t="n">
-        <v>76.02321022977821</v>
+        <v>186.8832904689847</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>47.19985645997116</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>110.2268048610706</v>
       </c>
       <c r="L17" t="n">
-        <v>167.0316352293387</v>
+        <v>167.0316352293386</v>
       </c>
       <c r="M17" t="n">
         <v>211.8462089789122</v>
@@ -35965,7 +35965,7 @@
         <v>11.81158122885465</v>
       </c>
       <c r="K18" t="n">
-        <v>84.33009090270841</v>
+        <v>233.7104901973525</v>
       </c>
       <c r="L18" t="n">
         <v>151.4094512574481</v>
@@ -35983,10 +35983,10 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q18" t="n">
-        <v>207.1422705274973</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>16.30029289587603</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K19" t="n">
         <v>152.3668479276244</v>
       </c>
       <c r="L19" t="n">
-        <v>191.6531174025547</v>
+        <v>253.1642674837344</v>
       </c>
       <c r="M19" t="n">
-        <v>278.964049118551</v>
+        <v>205.5002480691251</v>
       </c>
       <c r="N19" t="n">
-        <v>275.5980363026475</v>
+        <v>52.23500440484715</v>
       </c>
       <c r="O19" t="n">
         <v>243.5305516213873</v>
       </c>
       <c r="P19" t="n">
-        <v>11.3747581607313</v>
+        <v>186.8832904689847</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>47.19985645997116</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K21" t="n">
         <v>84.33009090270841</v>
@@ -36220,10 +36220,10 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.841977631621</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R21" t="n">
-        <v>16.30029289587603</v>
+        <v>1.762346247988313</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>152.3668479276244</v>
       </c>
       <c r="L22" t="n">
-        <v>41.94715547971364</v>
+        <v>131.8459668447615</v>
       </c>
       <c r="M22" t="n">
         <v>278.964049118551</v>
@@ -36296,7 +36296,7 @@
         <v>243.5305516213873</v>
       </c>
       <c r="P22" t="n">
-        <v>101.2735695257791</v>
+        <v>11.3747581607313</v>
       </c>
       <c r="Q22" t="n">
         <v>47.19985645997116</v>
@@ -36363,13 +36363,13 @@
         <v>110.2268048610706</v>
       </c>
       <c r="L23" t="n">
-        <v>167.0316352293386</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M23" t="n">
-        <v>211.846208978912</v>
+        <v>211.8462089789122</v>
       </c>
       <c r="N23" t="n">
-        <v>219.0606872779792</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O23" t="n">
         <v>195.9084519713344</v>
@@ -36378,10 +36378,10 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.75691449050606</v>
+        <v>88.75691449050561</v>
       </c>
       <c r="R23" t="n">
-        <v>53.00779589207167</v>
+        <v>53.0077958920717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>175.7299271713861</v>
       </c>
       <c r="K24" t="n">
-        <v>109.8187960413197</v>
+        <v>109.8187960413196</v>
       </c>
       <c r="L24" t="n">
-        <v>151.409451257448</v>
+        <v>151.4094512574481</v>
       </c>
       <c r="M24" t="n">
-        <v>192.57400667072</v>
+        <v>192.5740066707201</v>
       </c>
       <c r="N24" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O24" t="n">
-        <v>173.4121006727357</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P24" t="n">
-        <v>123.3117149064173</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q24" t="n">
         <v>314.5620523935809</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.60729409782203</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K25" t="n">
         <v>152.3668479276244</v>
@@ -36527,7 +36527,7 @@
         <v>278.964049118551</v>
       </c>
       <c r="N25" t="n">
-        <v>275.5980363026474</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O25" t="n">
         <v>243.5305516213873</v>
@@ -36536,7 +36536,7 @@
         <v>186.8832904689847</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.19985645997113</v>
+        <v>47.19985645997116</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.5875788756168</v>
+        <v>45.76197915192091</v>
       </c>
       <c r="K26" t="n">
         <v>110.2268048610706</v>
       </c>
       <c r="L26" t="n">
-        <v>167.0316352293386</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M26" t="n">
-        <v>211.846208978912</v>
+        <v>211.8462089789122</v>
       </c>
       <c r="N26" t="n">
-        <v>219.0606872779792</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O26" t="n">
-        <v>195.9084519713344</v>
+        <v>212.3372754543837</v>
       </c>
       <c r="P26" t="n">
-        <v>138.8881159038933</v>
+        <v>366.2783294759988</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.75691449050606</v>
+        <v>64.76347715904666</v>
       </c>
       <c r="R26" t="n">
-        <v>53.00779589207167</v>
+        <v>53.0077958920717</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>175.7299271713861</v>
       </c>
       <c r="K27" t="n">
-        <v>366.2783294759988</v>
+        <v>109.8187960413196</v>
       </c>
       <c r="L27" t="n">
-        <v>151.409451257448</v>
+        <v>151.4094512574481</v>
       </c>
       <c r="M27" t="n">
-        <v>192.57400667072</v>
+        <v>192.5740066707201</v>
       </c>
       <c r="N27" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O27" t="n">
-        <v>173.4121006727357</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P27" t="n">
-        <v>123.3117149064173</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.1025189589019</v>
+        <v>314.5620523935809</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.60729409782203</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K28" t="n">
         <v>152.3668479276244</v>
@@ -36764,7 +36764,7 @@
         <v>278.964049118551</v>
       </c>
       <c r="N28" t="n">
-        <v>275.5980363026474</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O28" t="n">
         <v>243.5305516213873</v>
@@ -36773,7 +36773,7 @@
         <v>186.8832904689847</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.19985645997113</v>
+        <v>47.19985645997116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.76197915192085</v>
+        <v>265.5875788756168</v>
       </c>
       <c r="K29" t="n">
-        <v>366.2783294759987</v>
+        <v>110.2268048610706</v>
       </c>
       <c r="L29" t="n">
-        <v>167.0316352293386</v>
+        <v>167.0316352293387</v>
       </c>
       <c r="M29" t="n">
-        <v>211.846208978912</v>
+        <v>211.8462089789122</v>
       </c>
       <c r="N29" t="n">
-        <v>219.0606872779792</v>
+        <v>219.0606872779793</v>
       </c>
       <c r="O29" t="n">
         <v>195.9084519713344</v>
@@ -36852,7 +36852,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.5387854913451</v>
+        <v>141.7647103825772</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.81158122885462</v>
+        <v>11.81158122885465</v>
       </c>
       <c r="K30" t="n">
-        <v>273.737141983851</v>
+        <v>273.7371419838511</v>
       </c>
       <c r="L30" t="n">
-        <v>151.409451257448</v>
+        <v>151.4094512574481</v>
       </c>
       <c r="M30" t="n">
-        <v>192.57400667072</v>
+        <v>192.5740066707201</v>
       </c>
       <c r="N30" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4121006727357</v>
+        <v>173.4121006727358</v>
       </c>
       <c r="P30" t="n">
-        <v>123.3117149064173</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q30" t="n">
         <v>314.5620523935809</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.60729409782203</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K31" t="n">
         <v>152.3668479276244</v>
@@ -37001,7 +37001,7 @@
         <v>278.964049118551</v>
       </c>
       <c r="N31" t="n">
-        <v>275.5980363026474</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O31" t="n">
         <v>243.5305516213873</v>
@@ -37010,7 +37010,7 @@
         <v>186.8832904689847</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.19985645997113</v>
+        <v>47.19985645997116</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>265.5875788756168</v>
       </c>
       <c r="K32" t="n">
-        <v>110.2268048610706</v>
+        <v>134.2202421925295</v>
       </c>
       <c r="L32" t="n">
         <v>167.0316352293387</v>
@@ -37083,7 +37083,7 @@
         <v>219.0606872779793</v>
       </c>
       <c r="O32" t="n">
-        <v>272.9096851948649</v>
+        <v>195.9084519713344</v>
       </c>
       <c r="P32" t="n">
         <v>138.8881159038933</v>
@@ -37092,7 +37092,7 @@
         <v>64.76347715904666</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>53.0077958920717</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K33" t="n">
-        <v>303.8710014708735</v>
+        <v>93.51850314544359</v>
       </c>
       <c r="L33" t="n">
         <v>151.4094512574481</v>
@@ -37165,13 +37165,13 @@
         <v>173.4121006727358</v>
       </c>
       <c r="P33" t="n">
-        <v>366.2783294759988</v>
+        <v>123.3117149064174</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.4615783369771</v>
+        <v>314.5620523935809</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>16.30029289587603</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>11.81158122885465</v>
+        <v>175.7299271713861</v>
       </c>
       <c r="K36" t="n">
         <v>84.33009090270841</v>
@@ -37405,7 +37405,7 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q36" t="n">
-        <v>207.1422705274973</v>
+        <v>43.22392458496604</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>152.3668479276244</v>
       </c>
       <c r="L37" t="n">
-        <v>253.1642674837344</v>
+        <v>144.4532609425839</v>
       </c>
       <c r="M37" t="n">
-        <v>218.1075421669471</v>
+        <v>278.964049118551</v>
       </c>
       <c r="N37" t="n">
-        <v>52.23500440484715</v>
+        <v>275.5980363026475</v>
       </c>
       <c r="O37" t="n">
         <v>243.5305516213873</v>
       </c>
       <c r="P37" t="n">
-        <v>186.8832904689847</v>
+        <v>11.3747581607313</v>
       </c>
       <c r="Q37" t="n">
         <v>47.19985645997116</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.76197915192091</v>
+        <v>45.76197915192125</v>
       </c>
       <c r="K38" t="n">
         <v>110.2268048610706</v>
@@ -37563,7 +37563,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.76347715904673</v>
+        <v>64.76347715904666</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>84.33009090270841</v>
       </c>
       <c r="L39" t="n">
-        <v>153.1717975054367</v>
+        <v>151.4094512574481</v>
       </c>
       <c r="M39" t="n">
         <v>192.5740066707201</v>
@@ -37642,7 +37642,7 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.4615783369771</v>
+        <v>43.22392458496604</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K40" t="n">
         <v>152.3668479276244</v>
@@ -37718,7 +37718,7 @@
         <v>243.5305516213873</v>
       </c>
       <c r="P40" t="n">
-        <v>113.8808636236012</v>
+        <v>101.2735695257795</v>
       </c>
       <c r="Q40" t="n">
         <v>47.19985645997116</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>175.7299271713861</v>
+        <v>11.81158122885465</v>
       </c>
       <c r="K42" t="n">
-        <v>84.33009090270841</v>
+        <v>250.010783093229</v>
       </c>
       <c r="L42" t="n">
         <v>151.4094512574481</v>
@@ -37879,7 +37879,7 @@
         <v>123.3117149064174</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.22392458496559</v>
+        <v>41.4615783369771</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>12.60729409782204</v>
       </c>
       <c r="K43" t="n">
         <v>152.3668479276244</v>
       </c>
       <c r="L43" t="n">
-        <v>41.94715547971364</v>
+        <v>253.1642674837344</v>
       </c>
       <c r="M43" t="n">
         <v>278.964049118551</v>
       </c>
       <c r="N43" t="n">
-        <v>275.5980363026475</v>
+        <v>237.9252260910401</v>
       </c>
       <c r="O43" t="n">
-        <v>243.5305516213873</v>
+        <v>31.57638534574011</v>
       </c>
       <c r="P43" t="n">
-        <v>113.8808636236012</v>
+        <v>186.8832904689847</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.19985645997116</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.76197915192091</v>
+        <v>45.76197915192085</v>
       </c>
       <c r="K44" t="n">
         <v>110.2268048610706</v>
       </c>
       <c r="L44" t="n">
-        <v>167.0316352293387</v>
+        <v>167.0316352293386</v>
       </c>
       <c r="M44" t="n">
-        <v>211.8462089789122</v>
+        <v>211.846208978912</v>
       </c>
       <c r="N44" t="n">
         <v>219.0606872779792</v>
@@ -38037,7 +38037,7 @@
         <v>138.8881159038933</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.76347715904666</v>
+        <v>64.76347715904663</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>161.1919805234987</v>
+        <v>161.1919805234985</v>
       </c>
       <c r="K45" t="n">
-        <v>84.33009090270841</v>
+        <v>84.33009090270838</v>
       </c>
       <c r="L45" t="n">
-        <v>151.4094512574481</v>
+        <v>151.409451257448</v>
       </c>
       <c r="M45" t="n">
-        <v>192.5740066707201</v>
+        <v>192.57400667072</v>
       </c>
       <c r="N45" t="n">
         <v>209.4961443671145</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4121006727358</v>
+        <v>173.4121006727357</v>
       </c>
       <c r="P45" t="n">
-        <v>123.3117149064174</v>
+        <v>123.3117149064173</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.4615783369771</v>
+        <v>41.46157833697707</v>
       </c>
       <c r="R45" t="n">
-        <v>16.30029289587603</v>
+        <v>16.30029289587601</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>12.60729409782203</v>
       </c>
       <c r="K46" t="n">
-        <v>13.59995167957611</v>
+        <v>152.3668479276244</v>
       </c>
       <c r="L46" t="n">
         <v>253.1642674837344</v>
       </c>
       <c r="M46" t="n">
-        <v>278.964049118551</v>
+        <v>46.90148993627164</v>
       </c>
       <c r="N46" t="n">
-        <v>275.5980363026475</v>
+        <v>210.8337625377</v>
       </c>
       <c r="O46" t="n">
         <v>243.5305516213873</v>
       </c>
       <c r="P46" t="n">
-        <v>88.63050432759994</v>
+        <v>186.8832904689847</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>47.19985645997113</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
